--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2297180.65254653</v>
+        <v>2295447.171432888</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1370,10 +1370,10 @@
         <v>303.3026304363736</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D11" t="n">
-        <v>275.251830393576</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>302.4991588451549</v>
@@ -1382,13 +1382,13 @@
         <v>327.4448345146045</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>113.985013185951</v>
       </c>
       <c r="H11" t="n">
-        <v>231.5596978048558</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.81896975173339</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.21019719500373</v>
+        <v>66.21019719500376</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U11" t="n">
-        <v>161.529931949255</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>290.2998894513621</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.8067274289466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.8553954612995</v>
+        <v>110.0063060491317</v>
       </c>
       <c r="H12" t="n">
         <v>97.863321483828</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.763751642754528</v>
       </c>
       <c r="S12" t="n">
-        <v>64.61075194868778</v>
+        <v>64.61075194868781</v>
       </c>
       <c r="T12" t="n">
-        <v>134.8108686722629</v>
+        <v>194.1665539401884</v>
       </c>
       <c r="U12" t="n">
         <v>146.4122681103211</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>153.3693759223183</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C13" t="n">
-        <v>87.81560987152088</v>
+        <v>87.81560987152091</v>
       </c>
       <c r="D13" t="n">
-        <v>69.1842617911054</v>
+        <v>69.18426179110543</v>
       </c>
       <c r="E13" t="n">
-        <v>67.00275141946221</v>
+        <v>67.00275141946224</v>
       </c>
       <c r="F13" t="n">
-        <v>65.98983679582429</v>
+        <v>65.98983679582432</v>
       </c>
       <c r="G13" t="n">
-        <v>87.31217688571732</v>
+        <v>87.31217688571735</v>
       </c>
       <c r="H13" t="n">
-        <v>71.70374093278244</v>
+        <v>71.70374093278248</v>
       </c>
       <c r="I13" t="n">
-        <v>38.5007924223436</v>
+        <v>38.50079242234363</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76594105089779</v>
+        <v>41.76594105089784</v>
       </c>
       <c r="S13" t="n">
         <v>122.8432739200354</v>
@@ -1585,16 +1585,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V13" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W13" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X13" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>303.3026304363736</v>
       </c>
       <c r="C14" t="n">
-        <v>285.8416805439006</v>
+        <v>231.1620515219756</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F14" t="n">
-        <v>327.4448345146045</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>333.0902356170842</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V14" t="n">
-        <v>148.3091425365544</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>269.8097574903061</v>
@@ -1673,7 +1673,7 @@
         <v>290.2998894513621</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.8067274289466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>87.10197242276038</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>93.27728776120878</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>68.01385433753182</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1704,7 +1704,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754528</v>
       </c>
       <c r="S15" t="n">
-        <v>76.92252626511439</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T15" t="n">
         <v>194.1665539401884</v>
       </c>
       <c r="U15" t="n">
-        <v>225.843479337428</v>
+        <v>146.4122681103211</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>206.951497737257</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>126.3417739763705</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C16" t="n">
-        <v>87.81560987152088</v>
+        <v>87.81560987152091</v>
       </c>
       <c r="D16" t="n">
-        <v>69.1842617911054</v>
+        <v>69.18426179110543</v>
       </c>
       <c r="E16" t="n">
-        <v>67.00275141946221</v>
+        <v>67.00275141946224</v>
       </c>
       <c r="F16" t="n">
-        <v>65.98983679582429</v>
+        <v>65.98983679582432</v>
       </c>
       <c r="G16" t="n">
-        <v>87.31217688571732</v>
+        <v>87.31217688571735</v>
       </c>
       <c r="H16" t="n">
-        <v>71.70374093278244</v>
+        <v>71.70374093278248</v>
       </c>
       <c r="I16" t="n">
-        <v>38.5007924223436</v>
+        <v>38.50079242234363</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76594105089779</v>
+        <v>41.76594105089784</v>
       </c>
       <c r="S16" t="n">
         <v>122.8432739200354</v>
@@ -1822,16 +1822,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V16" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W16" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X16" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="17">
@@ -1844,19 +1844,19 @@
         <v>223.8714192092667</v>
       </c>
       <c r="C17" t="n">
-        <v>206.4104693167936</v>
+        <v>206.4104693167937</v>
       </c>
       <c r="D17" t="n">
-        <v>195.820619166469</v>
+        <v>195.8206191664691</v>
       </c>
       <c r="E17" t="n">
         <v>223.0679476180479</v>
       </c>
       <c r="F17" t="n">
-        <v>248.0136232874975</v>
+        <v>248.0136232874976</v>
       </c>
       <c r="G17" t="n">
-        <v>73.76070174028675</v>
+        <v>253.6590243899773</v>
       </c>
       <c r="H17" t="n">
         <v>152.1284865777488</v>
@@ -1895,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.05832719786042</v>
+        <v>52.05832719786045</v>
       </c>
       <c r="U17" t="n">
-        <v>92.26072719994707</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>168.889836015921</v>
@@ -1907,7 +1907,7 @@
         <v>190.3785462631991</v>
       </c>
       <c r="X17" t="n">
-        <v>210.8686782242551</v>
+        <v>123.2310827745124</v>
       </c>
       <c r="Y17" t="n">
         <v>227.3755162018397</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.863321483828</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.1608637285961</v>
+        <v>15.50060922298933</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.763751642754514</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>144.0419631757947</v>
@@ -1977,7 +1977,7 @@
         <v>194.1665539401884</v>
       </c>
       <c r="U18" t="n">
-        <v>97.55615170523686</v>
+        <v>225.843479337428</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.96955772772338</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>8.38439864441392</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.88096565861037</v>
+        <v>7.880965658610398</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.41206269292842</v>
+        <v>43.41206269292846</v>
       </c>
       <c r="T19" t="n">
-        <v>63.75254983362936</v>
+        <v>63.75254983362939</v>
       </c>
       <c r="U19" t="n">
         <v>127.3885564706969</v>
       </c>
       <c r="V19" t="n">
-        <v>147.395054118172</v>
+        <v>93.27522086961412</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>127.6605758823771</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>131.2140156193822</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>59.72223089788091</v>
       </c>
     </row>
     <row r="20">
@@ -2081,19 +2081,19 @@
         <v>223.8714192092667</v>
       </c>
       <c r="C20" t="n">
-        <v>206.4104693167936</v>
+        <v>206.4104693167937</v>
       </c>
       <c r="D20" t="n">
-        <v>15.92229651677819</v>
+        <v>195.8206191664691</v>
       </c>
       <c r="E20" t="n">
         <v>223.0679476180479</v>
       </c>
       <c r="F20" t="n">
-        <v>248.0136232874975</v>
+        <v>248.0136232874976</v>
       </c>
       <c r="G20" t="n">
-        <v>253.6590243899772</v>
+        <v>253.6590243899773</v>
       </c>
       <c r="H20" t="n">
         <v>152.1284865777488</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>52.05832719786042</v>
+        <v>52.05832719786045</v>
       </c>
       <c r="U20" t="n">
-        <v>92.26072719994707</v>
+        <v>92.2607271999471</v>
       </c>
       <c r="V20" t="n">
         <v>168.889836015921</v>
@@ -2144,7 +2144,7 @@
         <v>190.3785462631991</v>
       </c>
       <c r="X20" t="n">
-        <v>210.8686782242551</v>
+        <v>30.97035557456602</v>
       </c>
       <c r="Y20" t="n">
         <v>227.3755162018397</v>
@@ -2178,7 +2178,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I21" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754528</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>38.76166253651989</v>
       </c>
       <c r="T21" t="n">
-        <v>74.0657940224929</v>
+        <v>194.1665539401884</v>
       </c>
       <c r="U21" t="n">
-        <v>225.843479337428</v>
+        <v>66.98105688321415</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.96955772772338</v>
+        <v>20.96955772772341</v>
       </c>
       <c r="C22" t="n">
-        <v>92.90711143094276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.88096565861037</v>
+        <v>7.880965658610398</v>
       </c>
       <c r="H22" t="n">
-        <v>151.1349521598894</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.41206269292842</v>
+        <v>43.41206269292846</v>
       </c>
       <c r="T22" t="n">
-        <v>63.75254983362936</v>
+        <v>63.75254983362939</v>
       </c>
       <c r="U22" t="n">
         <v>127.3885564706969</v>
       </c>
       <c r="V22" t="n">
-        <v>93.27522086961409</v>
+        <v>93.27522086961412</v>
       </c>
       <c r="W22" t="n">
         <v>127.6605758823771</v>
       </c>
       <c r="X22" t="n">
-        <v>66.84723293482324</v>
+        <v>66.84723293482327</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.72223089788088</v>
+        <v>136.5174733900845</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2318,19 @@
         <v>223.8714192092667</v>
       </c>
       <c r="C23" t="n">
-        <v>206.4104693167936</v>
+        <v>206.4104693167937</v>
       </c>
       <c r="D23" t="n">
-        <v>195.820619166469</v>
+        <v>195.8206191664691</v>
       </c>
       <c r="E23" t="n">
         <v>223.0679476180479</v>
       </c>
       <c r="F23" t="n">
-        <v>248.0136232874975</v>
+        <v>248.0136232874976</v>
       </c>
       <c r="G23" t="n">
-        <v>253.6590243899772</v>
+        <v>253.6590243899773</v>
       </c>
       <c r="H23" t="n">
         <v>152.1284865777488</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>52.05832719786042</v>
+        <v>52.05832719786045</v>
       </c>
       <c r="U23" t="n">
-        <v>92.26072719994707</v>
+        <v>92.2607271999471</v>
       </c>
       <c r="V23" t="n">
         <v>168.889836015921</v>
@@ -2412,10 +2412,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H24" t="n">
-        <v>21.38267268278291</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I24" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>144.0419631757947</v>
+        <v>67.56131437475032</v>
       </c>
       <c r="T24" t="n">
         <v>194.1665539401884</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.96955772772338</v>
+        <v>20.96955772772341</v>
       </c>
       <c r="C25" t="n">
-        <v>93.92002605458089</v>
+        <v>98.62101556790036</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>7.88096565861037</v>
+        <v>7.880965658610398</v>
       </c>
       <c r="H25" t="n">
-        <v>151.1349521598894</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.41206269292842</v>
+        <v>43.41206269292846</v>
       </c>
       <c r="T25" t="n">
-        <v>63.75254983362936</v>
+        <v>63.75254983362939</v>
       </c>
       <c r="U25" t="n">
         <v>127.3885564706969</v>
       </c>
       <c r="V25" t="n">
-        <v>93.27522086961409</v>
+        <v>93.27522086961412</v>
       </c>
       <c r="W25" t="n">
         <v>127.6605758823771</v>
       </c>
       <c r="X25" t="n">
-        <v>66.84723293482324</v>
+        <v>66.84723293482327</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.72223089788088</v>
+        <v>59.72223089788091</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2561,19 @@
         <v>275.251830393576</v>
       </c>
       <c r="E26" t="n">
-        <v>302.4991588451549</v>
+        <v>302.4991588451548</v>
       </c>
       <c r="F26" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G26" t="n">
-        <v>333.0902356170842</v>
+        <v>333.0902356170841</v>
       </c>
       <c r="H26" t="n">
-        <v>231.5596978048558</v>
+        <v>231.5596978048557</v>
       </c>
       <c r="I26" t="n">
-        <v>23.81896975173336</v>
+        <v>23.81896975173335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.21019719500374</v>
+        <v>66.21019719500373</v>
       </c>
       <c r="T26" t="n">
-        <v>131.4895384249674</v>
+        <v>131.4895384249673</v>
       </c>
       <c r="U26" t="n">
         <v>171.691938427054</v>
       </c>
       <c r="V26" t="n">
-        <v>248.321047243028</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W26" t="n">
-        <v>269.8097574903061</v>
+        <v>269.809757490306</v>
       </c>
       <c r="X26" t="n">
-        <v>290.2998894513621</v>
+        <v>290.299889451362</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.8067274289467</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I27" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754528</v>
       </c>
       <c r="S27" t="n">
         <v>144.0419631757947</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.4007689548304</v>
+        <v>100.4007689548303</v>
       </c>
       <c r="C28" t="n">
-        <v>87.81560987152089</v>
+        <v>87.81560987152086</v>
       </c>
       <c r="D28" t="n">
-        <v>69.18426179110541</v>
+        <v>69.18426179110538</v>
       </c>
       <c r="E28" t="n">
-        <v>67.00275141946223</v>
+        <v>67.0027514194622</v>
       </c>
       <c r="F28" t="n">
-        <v>65.9898367958243</v>
+        <v>65.98983679582427</v>
       </c>
       <c r="G28" t="n">
-        <v>87.31217688571734</v>
+        <v>87.31217688571731</v>
       </c>
       <c r="H28" t="n">
-        <v>71.70374093278195</v>
+        <v>71.70374093278244</v>
       </c>
       <c r="I28" t="n">
-        <v>38.50079242234362</v>
+        <v>38.50079242234359</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76594105089781</v>
+        <v>41.76594105089779</v>
       </c>
       <c r="S28" t="n">
         <v>122.8432739200354</v>
@@ -2770,16 +2770,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V28" t="n">
-        <v>172.7064320967211</v>
+        <v>172.706432096721</v>
       </c>
       <c r="W28" t="n">
-        <v>207.0917871094841</v>
+        <v>207.091787109484</v>
       </c>
       <c r="X28" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.1534421249879</v>
+        <v>139.1534421249878</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>303.3026304363736</v>
       </c>
       <c r="C29" t="n">
-        <v>285.8416805439007</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D29" t="n">
         <v>275.251830393576</v>
       </c>
       <c r="E29" t="n">
-        <v>302.4991588451549</v>
+        <v>302.4991588451548</v>
       </c>
       <c r="F29" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G29" t="n">
-        <v>333.0902356170842</v>
+        <v>333.0902356170841</v>
       </c>
       <c r="H29" t="n">
-        <v>231.5596978048558</v>
+        <v>231.5596978048557</v>
       </c>
       <c r="I29" t="n">
-        <v>23.81896975173341</v>
+        <v>23.81896975173333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.21019719500379</v>
+        <v>66.2101971950037</v>
       </c>
       <c r="T29" t="n">
-        <v>131.4895384249674</v>
+        <v>131.4895384249673</v>
       </c>
       <c r="U29" t="n">
-        <v>171.6919384270541</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V29" t="n">
-        <v>248.321047243028</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W29" t="n">
-        <v>269.8097574903061</v>
+        <v>269.809757490306</v>
       </c>
       <c r="X29" t="n">
-        <v>290.2998894513621</v>
+        <v>290.299889451362</v>
       </c>
       <c r="Y29" t="n">
-        <v>306.8067274289467</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I30" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754528</v>
       </c>
       <c r="S30" t="n">
         <v>144.0419631757947</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.4007689548304</v>
+        <v>100.4007689548303</v>
       </c>
       <c r="C31" t="n">
-        <v>87.81560987152093</v>
+        <v>87.81560987152085</v>
       </c>
       <c r="D31" t="n">
-        <v>69.18426179110546</v>
+        <v>69.18426179110537</v>
       </c>
       <c r="E31" t="n">
-        <v>67.00275141946227</v>
+        <v>67.00275141946219</v>
       </c>
       <c r="F31" t="n">
-        <v>65.98983679582435</v>
+        <v>65.98983679582514</v>
       </c>
       <c r="G31" t="n">
-        <v>87.31217688571738</v>
+        <v>87.31217688571729</v>
       </c>
       <c r="H31" t="n">
-        <v>71.70374093278249</v>
+        <v>71.70374093278242</v>
       </c>
       <c r="I31" t="n">
-        <v>38.50079242234366</v>
+        <v>38.50079242234357</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76594105089811</v>
+        <v>41.76594105089778</v>
       </c>
       <c r="S31" t="n">
         <v>122.8432739200354</v>
       </c>
       <c r="T31" t="n">
-        <v>143.1837610607364</v>
+        <v>143.1837610607363</v>
       </c>
       <c r="U31" t="n">
         <v>206.8197676978039</v>
       </c>
       <c r="V31" t="n">
-        <v>172.7064320967211</v>
+        <v>172.706432096721</v>
       </c>
       <c r="W31" t="n">
-        <v>207.0917871094841</v>
+        <v>207.091787109484</v>
       </c>
       <c r="X31" t="n">
-        <v>146.2784441619303</v>
+        <v>146.2784441619302</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.1534421249879</v>
+        <v>139.1534421249878</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>231.5596978048558</v>
       </c>
       <c r="I32" t="n">
-        <v>23.81896975173336</v>
+        <v>23.81896975173338</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I33" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754528</v>
       </c>
       <c r="S33" t="n">
         <v>144.0419631757947</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76594105089781</v>
+        <v>41.76594105089782</v>
       </c>
       <c r="S34" t="n">
         <v>122.8432739200354</v>
@@ -3363,7 +3363,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I36" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754528</v>
       </c>
       <c r="S36" t="n">
         <v>144.0419631757947</v>
@@ -3424,10 +3424,10 @@
         <v>34.19057175982661</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.60541267651715</v>
       </c>
       <c r="D37" t="n">
-        <v>2.97406459610167</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0.7925542244584847</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>146.7653653509806</v>
+        <v>21.10197969071359</v>
       </c>
       <c r="H37" t="n">
-        <v>5.493543737778715</v>
+        <v>5.493543737778717</v>
       </c>
       <c r="I37" t="n">
-        <v>117.9320036494506</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S37" t="n">
-        <v>56.63307672503165</v>
+        <v>56.63307672503166</v>
       </c>
       <c r="T37" t="n">
         <v>76.97356386573259</v>
       </c>
       <c r="U37" t="n">
-        <v>140.6095705028001</v>
+        <v>263.007807534513</v>
       </c>
       <c r="V37" t="n">
         <v>106.4962349017173</v>
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.0924332413699</v>
+        <v>237.0924332413698</v>
       </c>
       <c r="C38" t="n">
-        <v>219.6314833488969</v>
+        <v>219.6314833488968</v>
       </c>
       <c r="D38" t="n">
-        <v>209.0416331985723</v>
+        <v>209.0416331985722</v>
       </c>
       <c r="E38" t="n">
-        <v>236.2889616501511</v>
+        <v>236.288961650151</v>
       </c>
       <c r="F38" t="n">
-        <v>261.2346373196008</v>
+        <v>261.2346373196007</v>
       </c>
       <c r="G38" t="n">
-        <v>266.8800384220805</v>
+        <v>266.8800384220804</v>
       </c>
       <c r="H38" t="n">
         <v>165.349500609852</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.27934122996365</v>
+        <v>65.27934122996359</v>
       </c>
       <c r="U38" t="n">
-        <v>105.4817412320503</v>
+        <v>105.4817412320502</v>
       </c>
       <c r="V38" t="n">
         <v>182.1108500480242</v>
@@ -3569,7 +3569,7 @@
         <v>224.0896922563583</v>
       </c>
       <c r="Y38" t="n">
-        <v>240.5965302339429</v>
+        <v>240.5965302339428</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I39" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754528</v>
       </c>
       <c r="S39" t="n">
         <v>144.0419631757947</v>
@@ -3658,31 +3658,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.19057175982661</v>
+        <v>34.19057175982655</v>
       </c>
       <c r="C40" t="n">
-        <v>21.60541267651715</v>
+        <v>21.60541267651709</v>
       </c>
       <c r="D40" t="n">
-        <v>2.97406459610167</v>
+        <v>101.1484058828887</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7925542244584847</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>21.10197969071359</v>
+        <v>21.10197969071354</v>
       </c>
       <c r="H40" t="n">
-        <v>5.493543737778715</v>
+        <v>5.49354373777866</v>
       </c>
       <c r="I40" t="n">
-        <v>117.9320036494506</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>4.46623338226231</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.63307672503165</v>
+        <v>56.6330767250316</v>
       </c>
       <c r="T40" t="n">
-        <v>76.97356386573259</v>
+        <v>76.97356386573253</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2509789249108</v>
+        <v>140.6095705028001</v>
       </c>
       <c r="V40" t="n">
         <v>106.4962349017173</v>
@@ -3724,10 +3724,10 @@
         <v>140.8815899144803</v>
       </c>
       <c r="X40" t="n">
-        <v>80.06824696692647</v>
+        <v>80.06824696692641</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.9432449299841</v>
+        <v>72.94324492998405</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.0924332413699</v>
+        <v>237.0924332413698</v>
       </c>
       <c r="C41" t="n">
-        <v>219.6314833488967</v>
+        <v>219.6314833488968</v>
       </c>
       <c r="D41" t="n">
-        <v>209.0416331985723</v>
+        <v>209.0416331985722</v>
       </c>
       <c r="E41" t="n">
-        <v>236.2889616501511</v>
+        <v>236.288961650151</v>
       </c>
       <c r="F41" t="n">
-        <v>261.2346373196008</v>
+        <v>261.2346373196007</v>
       </c>
       <c r="G41" t="n">
-        <v>266.8800384220805</v>
+        <v>266.8800384220804</v>
       </c>
       <c r="H41" t="n">
         <v>165.349500609852</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>65.27934122996365</v>
+        <v>65.27934122996399</v>
       </c>
       <c r="U41" t="n">
-        <v>105.4817412320503</v>
+        <v>105.4817412320502</v>
       </c>
       <c r="V41" t="n">
         <v>182.1108500480242</v>
@@ -3806,7 +3806,7 @@
         <v>224.0896922563583</v>
       </c>
       <c r="Y41" t="n">
-        <v>240.5965302339429</v>
+        <v>240.5965302339428</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I42" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754528</v>
       </c>
       <c r="S42" t="n">
         <v>144.0419631757947</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>34.19057175982655</v>
       </c>
       <c r="C43" t="n">
-        <v>119.5593935641241</v>
+        <v>21.60541267651709</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>2.974064596101613</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7925542244584847</v>
+        <v>0.7925542244584278</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>21.10197969071359</v>
+        <v>166.7433881128243</v>
       </c>
       <c r="H43" t="n">
-        <v>5.493543737778715</v>
+        <v>103.6678850245658</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.63307672503165</v>
+        <v>56.6330767250316</v>
       </c>
       <c r="T43" t="n">
-        <v>76.97356386573259</v>
+        <v>76.97356386573253</v>
       </c>
       <c r="U43" t="n">
         <v>140.6095705028001</v>
@@ -3961,10 +3961,10 @@
         <v>140.8815899144803</v>
       </c>
       <c r="X43" t="n">
-        <v>80.06824696692647</v>
+        <v>80.06824696692641</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.9432449299841</v>
+        <v>72.94324492998405</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.0924332413699</v>
+        <v>237.0924332413698</v>
       </c>
       <c r="C44" t="n">
         <v>219.6314833488968</v>
@@ -3983,7 +3983,7 @@
         <v>209.0416331985722</v>
       </c>
       <c r="E44" t="n">
-        <v>236.2889616501511</v>
+        <v>236.288961650151</v>
       </c>
       <c r="F44" t="n">
         <v>261.2346373196007</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>65.27934122996362</v>
+        <v>65.27934122996359</v>
       </c>
       <c r="U44" t="n">
-        <v>105.4817412320503</v>
+        <v>105.4817412320502</v>
       </c>
       <c r="V44" t="n">
         <v>182.1108500480242</v>
@@ -4043,7 +4043,7 @@
         <v>224.0896922563583</v>
       </c>
       <c r="Y44" t="n">
-        <v>240.5965302339429</v>
+        <v>240.5965302339428</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I45" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754528</v>
       </c>
       <c r="S45" t="n">
         <v>144.0419631757947</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.19057175982658</v>
+        <v>132.1445526474343</v>
       </c>
       <c r="C46" t="n">
-        <v>21.60541267651712</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>2.974064596101641</v>
+        <v>2.974064596101613</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7925542244584562</v>
+        <v>0.7925542244584278</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>21.10197969071357</v>
+        <v>21.10197969071354</v>
       </c>
       <c r="H46" t="n">
-        <v>5.493543737778687</v>
+        <v>5.49354373777866</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.63307672503162</v>
+        <v>202.2744851471423</v>
       </c>
       <c r="T46" t="n">
-        <v>222.6149722878433</v>
+        <v>76.97356386573253</v>
       </c>
       <c r="U46" t="n">
-        <v>238.5635513904072</v>
+        <v>140.6095705028001</v>
       </c>
       <c r="V46" t="n">
         <v>106.4962349017173</v>
@@ -4198,10 +4198,10 @@
         <v>140.8815899144803</v>
       </c>
       <c r="X46" t="n">
-        <v>80.06824696692644</v>
+        <v>80.06824696692641</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>72.94324492998405</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1194.927343936724</v>
+        <v>1110.921419980314</v>
       </c>
       <c r="C11" t="n">
-        <v>1194.927343936724</v>
+        <v>822.1924497339494</v>
       </c>
       <c r="D11" t="n">
-        <v>916.8951920240213</v>
+        <v>822.1924497339494</v>
       </c>
       <c r="E11" t="n">
-        <v>611.3404861198245</v>
+        <v>516.6377438297525</v>
       </c>
       <c r="F11" t="n">
-        <v>280.5881280242644</v>
+        <v>185.8853857341923</v>
       </c>
       <c r="G11" t="n">
-        <v>280.5881280242644</v>
+        <v>70.74900877868627</v>
       </c>
       <c r="H11" t="n">
-        <v>46.68944337289491</v>
+        <v>70.74900877868627</v>
       </c>
       <c r="I11" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J11" t="n">
         <v>268.5576303040251</v>
       </c>
       <c r="K11" t="n">
-        <v>721.8253333671896</v>
+        <v>400.9213749217364</v>
       </c>
       <c r="L11" t="n">
-        <v>922.9360248263356</v>
+        <v>602.0320663808823</v>
       </c>
       <c r="M11" t="n">
-        <v>1178.379856400474</v>
+        <v>1179.813928120457</v>
       </c>
       <c r="N11" t="n">
-        <v>1442.570844606618</v>
+        <v>1444.004916326602</v>
       </c>
       <c r="O11" t="n">
-        <v>1678.703641947811</v>
+        <v>1680.137713667795</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.018338954668</v>
+        <v>2047.01833895467</v>
       </c>
       <c r="Q11" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R11" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S11" t="n">
-        <v>2267.593181579085</v>
+        <v>2267.593181579087</v>
       </c>
       <c r="T11" t="n">
-        <v>2267.593181579085</v>
+        <v>2134.775465998312</v>
       </c>
       <c r="U11" t="n">
-        <v>2104.431634155595</v>
+        <v>1961.349265566944</v>
       </c>
       <c r="V11" t="n">
-        <v>2104.431634155595</v>
+        <v>1710.51992491742</v>
       </c>
       <c r="W11" t="n">
-        <v>2104.431634155595</v>
+        <v>1710.51992491742</v>
       </c>
       <c r="X11" t="n">
-        <v>1811.199422588563</v>
+        <v>1417.287713350388</v>
       </c>
       <c r="Y11" t="n">
-        <v>1501.293637306799</v>
+        <v>1417.287713350388</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>911.928407359629</v>
+        <v>924.364543032789</v>
       </c>
       <c r="C12" t="n">
-        <v>737.475378078502</v>
+        <v>749.911513751662</v>
       </c>
       <c r="D12" t="n">
-        <v>588.5409684172507</v>
+        <v>600.9771040904108</v>
       </c>
       <c r="E12" t="n">
-        <v>429.3035134117953</v>
+        <v>441.7396490849553</v>
       </c>
       <c r="F12" t="n">
-        <v>282.7689554386802</v>
+        <v>295.2050911118403</v>
       </c>
       <c r="G12" t="n">
-        <v>145.5412832555495</v>
+        <v>184.0876102541314</v>
       </c>
       <c r="H12" t="n">
-        <v>46.68944337289491</v>
+        <v>85.23577037147687</v>
       </c>
       <c r="I12" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J12" t="n">
         <v>185.1392358768292</v>
       </c>
       <c r="K12" t="n">
-        <v>548.3928263393645</v>
+        <v>548.3928263393643</v>
       </c>
       <c r="L12" t="n">
-        <v>731.1045614300155</v>
+        <v>1098.23650328044</v>
       </c>
       <c r="M12" t="n">
-        <v>963.6774064972809</v>
+        <v>1330.809348347705</v>
       </c>
       <c r="N12" t="n">
-        <v>1541.459268236855</v>
+        <v>1583.946349497549</v>
       </c>
       <c r="O12" t="n">
-        <v>1750.810374762907</v>
+        <v>1821.028474992657</v>
       </c>
       <c r="P12" t="n">
-        <v>2077.019754551159</v>
+        <v>2284.996269409652</v>
       </c>
       <c r="Q12" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R12" t="n">
-        <v>2334.472168644746</v>
+        <v>2326.629995268228</v>
       </c>
       <c r="S12" t="n">
-        <v>2269.20878283799</v>
+        <v>2261.366609461472</v>
       </c>
       <c r="T12" t="n">
-        <v>2133.036188219543</v>
+        <v>2065.238777198656</v>
       </c>
       <c r="U12" t="n">
-        <v>1985.145008310128</v>
+        <v>1917.347597289241</v>
       </c>
       <c r="V12" t="n">
-        <v>1749.992900078385</v>
+        <v>1762.429035751545</v>
       </c>
       <c r="W12" t="n">
-        <v>1495.755543350184</v>
+        <v>1508.191679023344</v>
       </c>
       <c r="X12" t="n">
-        <v>1287.904043144651</v>
+        <v>1300.340178817811</v>
       </c>
       <c r="Y12" t="n">
-        <v>1080.143744379697</v>
+        <v>1092.579880052857</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.1229485433562</v>
+        <v>539.122948543356</v>
       </c>
       <c r="C13" t="n">
-        <v>450.4203123094967</v>
+        <v>450.4203123094964</v>
       </c>
       <c r="D13" t="n">
-        <v>380.5372195912084</v>
+        <v>380.5372195912081</v>
       </c>
       <c r="E13" t="n">
-        <v>312.8576727028627</v>
+        <v>312.8576727028623</v>
       </c>
       <c r="F13" t="n">
-        <v>246.2012718989997</v>
+        <v>246.2012718989994</v>
       </c>
       <c r="G13" t="n">
-        <v>158.0071538326185</v>
+        <v>158.0071538326181</v>
       </c>
       <c r="H13" t="n">
-        <v>85.5791326883935</v>
+        <v>85.57913268839357</v>
       </c>
       <c r="I13" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J13" t="n">
         <v>120.2234082279187</v>
       </c>
       <c r="K13" t="n">
-        <v>320.3114555080078</v>
+        <v>320.311455508008</v>
       </c>
       <c r="L13" t="n">
         <v>609.8904447105128</v>
       </c>
       <c r="M13" t="n">
-        <v>921.3253246538486</v>
+        <v>921.3253246538484</v>
       </c>
       <c r="N13" t="n">
         <v>1232.659405364007</v>
@@ -5236,13 +5236,13 @@
         <v>1138.036526675914</v>
       </c>
       <c r="W13" t="n">
-        <v>928.8529033330009</v>
+        <v>928.8529033330008</v>
       </c>
       <c r="X13" t="n">
-        <v>781.096899129031</v>
+        <v>781.0968991290308</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.5378666795484</v>
+        <v>640.5378666795482</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1002.62555516642</v>
+        <v>1156.094639119431</v>
       </c>
       <c r="C14" t="n">
-        <v>713.8965849200553</v>
+        <v>922.5976173800616</v>
       </c>
       <c r="D14" t="n">
-        <v>713.8965849200553</v>
+        <v>922.5976173800616</v>
       </c>
       <c r="E14" t="n">
-        <v>713.8965849200553</v>
+        <v>617.0429114758647</v>
       </c>
       <c r="F14" t="n">
-        <v>383.1442268244951</v>
+        <v>617.0429114758647</v>
       </c>
       <c r="G14" t="n">
-        <v>46.68944337289491</v>
+        <v>280.5881280242645</v>
       </c>
       <c r="H14" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I14" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J14" t="n">
-        <v>268.5576303040251</v>
+        <v>101.151981283672</v>
       </c>
       <c r="K14" t="n">
-        <v>721.8253333671896</v>
+        <v>414.978757902136</v>
       </c>
       <c r="L14" t="n">
-        <v>922.9360248263356</v>
+        <v>992.7606196417109</v>
       </c>
       <c r="M14" t="n">
-        <v>1178.379856400474</v>
+        <v>1248.204451215849</v>
       </c>
       <c r="N14" t="n">
-        <v>1442.570844606618</v>
+        <v>1512.395439421994</v>
       </c>
       <c r="O14" t="n">
-        <v>1678.703641947811</v>
+        <v>2090.177301161569</v>
       </c>
       <c r="P14" t="n">
-        <v>2164.317241583986</v>
+        <v>2257.210179707976</v>
       </c>
       <c r="Q14" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R14" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S14" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="T14" t="n">
-        <v>2334.472168644746</v>
+        <v>2201.654453063972</v>
       </c>
       <c r="U14" t="n">
-        <v>2334.472168644746</v>
+        <v>2028.228252632605</v>
       </c>
       <c r="V14" t="n">
-        <v>2184.664953961357</v>
+        <v>2028.228252632605</v>
       </c>
       <c r="W14" t="n">
-        <v>1912.129845385291</v>
+        <v>1755.693144056538</v>
       </c>
       <c r="X14" t="n">
-        <v>1618.897633818258</v>
+        <v>1462.460932489505</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.991848536494</v>
+        <v>1462.460932489505</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>831.6948606655816</v>
+        <v>870.2411876641637</v>
       </c>
       <c r="C15" t="n">
-        <v>737.475378078502</v>
+        <v>695.7881583830367</v>
       </c>
       <c r="D15" t="n">
-        <v>588.5409684172507</v>
+        <v>627.0872954158328</v>
       </c>
       <c r="E15" t="n">
-        <v>429.3035134117953</v>
+        <v>467.8498404103773</v>
       </c>
       <c r="F15" t="n">
-        <v>282.7689554386802</v>
+        <v>321.3152824372622</v>
       </c>
       <c r="G15" t="n">
-        <v>145.5412832555495</v>
+        <v>184.0876102541314</v>
       </c>
       <c r="H15" t="n">
-        <v>46.68944337289491</v>
+        <v>85.23577037147687</v>
       </c>
       <c r="I15" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J15" t="n">
         <v>185.1392358768292</v>
       </c>
       <c r="K15" t="n">
-        <v>368.1473304499282</v>
+        <v>548.3928263393643</v>
       </c>
       <c r="L15" t="n">
-        <v>917.9910073910037</v>
+        <v>731.1045614300152</v>
       </c>
       <c r="M15" t="n">
-        <v>1150.563852458269</v>
+        <v>963.6774064972806</v>
       </c>
       <c r="N15" t="n">
-        <v>1403.700853608113</v>
+        <v>1216.814407647125</v>
       </c>
       <c r="O15" t="n">
-        <v>1613.051960134165</v>
+        <v>1613.051960134167</v>
       </c>
       <c r="P15" t="n">
-        <v>2077.019754551159</v>
+        <v>2077.019754551161</v>
       </c>
       <c r="Q15" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R15" t="n">
-        <v>2326.629995268226</v>
+        <v>2326.629995268228</v>
       </c>
       <c r="S15" t="n">
-        <v>2248.930473788312</v>
+        <v>2181.133062767425</v>
       </c>
       <c r="T15" t="n">
-        <v>2052.802641525496</v>
+        <v>1985.005230504608</v>
       </c>
       <c r="U15" t="n">
-        <v>1824.677914922033</v>
+        <v>1837.114050595193</v>
       </c>
       <c r="V15" t="n">
-        <v>1589.52580669029</v>
+        <v>1628.072133688873</v>
       </c>
       <c r="W15" t="n">
-        <v>1335.288449962089</v>
+        <v>1373.834776960671</v>
       </c>
       <c r="X15" t="n">
-        <v>1127.436949756556</v>
+        <v>1246.216823449186</v>
       </c>
       <c r="Y15" t="n">
-        <v>919.6766509916022</v>
+        <v>1038.456524684232</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>539.1229485433557</v>
+        <v>539.122948543356</v>
       </c>
       <c r="C16" t="n">
-        <v>450.4203123094962</v>
+        <v>450.4203123094964</v>
       </c>
       <c r="D16" t="n">
-        <v>380.5372195912079</v>
+        <v>380.5372195912081</v>
       </c>
       <c r="E16" t="n">
-        <v>312.8576727028623</v>
+        <v>312.8576727028624</v>
       </c>
       <c r="F16" t="n">
-        <v>246.2012718989993</v>
+        <v>246.2012718989995</v>
       </c>
       <c r="G16" t="n">
-        <v>158.0071538326182</v>
+        <v>158.0071538326183</v>
       </c>
       <c r="H16" t="n">
-        <v>85.5791326883935</v>
+        <v>85.57913268839357</v>
       </c>
       <c r="I16" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2234082279185</v>
+        <v>120.2234082279187</v>
       </c>
       <c r="K16" t="n">
-        <v>320.3114555080078</v>
+        <v>320.311455508008</v>
       </c>
       <c r="L16" t="n">
         <v>609.8904447105128</v>
@@ -5446,7 +5446,7 @@
         <v>921.3253246538484</v>
       </c>
       <c r="N16" t="n">
-        <v>1232.659405364007</v>
+        <v>1232.659405364008</v>
       </c>
       <c r="O16" t="n">
         <v>1510.213519297866</v>
@@ -5458,28 +5458,28 @@
         <v>1832.298320439747</v>
       </c>
       <c r="R16" t="n">
-        <v>1790.110501196415</v>
+        <v>1790.110501196416</v>
       </c>
       <c r="S16" t="n">
         <v>1666.026386125673</v>
       </c>
       <c r="T16" t="n">
-        <v>1521.396324448161</v>
+        <v>1521.396324448162</v>
       </c>
       <c r="U16" t="n">
-        <v>1312.487468187753</v>
+        <v>1312.487468187754</v>
       </c>
       <c r="V16" t="n">
         <v>1138.036526675914</v>
       </c>
       <c r="W16" t="n">
-        <v>928.8529033330005</v>
+        <v>928.852903333001</v>
       </c>
       <c r="X16" t="n">
-        <v>781.0968991290306</v>
+        <v>781.096899129031</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.537866679548</v>
+        <v>640.5378666795483</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1156.994340046474</v>
+        <v>1338.709817470404</v>
       </c>
       <c r="C17" t="n">
-        <v>948.4989164941572</v>
+        <v>1130.214393918087</v>
       </c>
       <c r="D17" t="n">
-        <v>750.7003112755016</v>
+        <v>932.4157886994318</v>
       </c>
       <c r="E17" t="n">
-        <v>525.3791520653522</v>
+        <v>707.0946294892824</v>
       </c>
       <c r="F17" t="n">
-        <v>274.8603406638395</v>
+        <v>456.5758180877697</v>
       </c>
       <c r="G17" t="n">
-        <v>200.3545813302169</v>
+        <v>200.354581330217</v>
       </c>
       <c r="H17" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I17" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J17" t="n">
-        <v>130.5136217217785</v>
+        <v>268.5576303040251</v>
       </c>
       <c r="K17" t="n">
-        <v>262.87736633949</v>
+        <v>400.9213749217364</v>
       </c>
       <c r="L17" t="n">
-        <v>463.988057798636</v>
+        <v>602.0320663808823</v>
       </c>
       <c r="M17" t="n">
-        <v>719.4318893727742</v>
+        <v>1179.813928120457</v>
       </c>
       <c r="N17" t="n">
-        <v>983.6228775789187</v>
+        <v>1444.004916326602</v>
       </c>
       <c r="O17" t="n">
-        <v>1561.404739318493</v>
+        <v>1680.137713667795</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.018338954668</v>
+        <v>2022.425618108814</v>
       </c>
       <c r="Q17" t="n">
-        <v>2334.472168644746</v>
+        <v>2309.879447798891</v>
       </c>
       <c r="R17" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S17" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="T17" t="n">
-        <v>2281.887999758018</v>
+        <v>2281.887999758019</v>
       </c>
       <c r="U17" t="n">
-        <v>2188.695346020698</v>
+        <v>2281.887999758019</v>
       </c>
       <c r="V17" t="n">
-        <v>2018.099552065222</v>
+        <v>2111.292205802543</v>
       </c>
       <c r="W17" t="n">
-        <v>1825.797990183203</v>
+        <v>1918.990643920524</v>
       </c>
       <c r="X17" t="n">
-        <v>1612.799325310218</v>
+        <v>1794.514802734148</v>
       </c>
       <c r="Y17" t="n">
-        <v>1383.127086722501</v>
+        <v>1564.842564146431</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>813.2470621750803</v>
+        <v>691.5060763271663</v>
       </c>
       <c r="C18" t="n">
-        <v>638.7940328939533</v>
+        <v>517.0530470460393</v>
       </c>
       <c r="D18" t="n">
-        <v>489.8596232327019</v>
+        <v>368.118637384788</v>
       </c>
       <c r="E18" t="n">
-        <v>330.6221682272464</v>
+        <v>208.8811823793325</v>
       </c>
       <c r="F18" t="n">
-        <v>184.0876102541314</v>
+        <v>62.3466244062175</v>
       </c>
       <c r="G18" t="n">
-        <v>184.0876102541314</v>
+        <v>62.3466244062175</v>
       </c>
       <c r="H18" t="n">
-        <v>85.23577037147683</v>
+        <v>62.3466244062175</v>
       </c>
       <c r="I18" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J18" t="n">
         <v>185.1392358768292</v>
       </c>
       <c r="K18" t="n">
-        <v>548.3928263393645</v>
+        <v>286.5722416969116</v>
       </c>
       <c r="L18" t="n">
-        <v>731.1045614300155</v>
+        <v>469.2839767875624</v>
       </c>
       <c r="M18" t="n">
-        <v>963.6774064972809</v>
+        <v>980.7428924670454</v>
       </c>
       <c r="N18" t="n">
-        <v>1216.814407647125</v>
+        <v>1558.52475420662</v>
       </c>
       <c r="O18" t="n">
-        <v>1794.5962693867</v>
+        <v>2136.306615946196</v>
       </c>
       <c r="P18" t="n">
-        <v>2258.564063803694</v>
+        <v>2284.996269409652</v>
       </c>
       <c r="Q18" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R18" t="n">
-        <v>2326.629995268226</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S18" t="n">
-        <v>2181.133062767423</v>
+        <v>2188.975236143945</v>
       </c>
       <c r="T18" t="n">
-        <v>1985.005230504606</v>
+        <v>1992.847403881128</v>
       </c>
       <c r="U18" t="n">
-        <v>1886.463663125579</v>
+        <v>1764.722677277665</v>
       </c>
       <c r="V18" t="n">
-        <v>1651.311554893837</v>
+        <v>1529.570569045923</v>
       </c>
       <c r="W18" t="n">
-        <v>1397.074198165635</v>
+        <v>1275.333212317721</v>
       </c>
       <c r="X18" t="n">
-        <v>1189.222697960102</v>
+        <v>1067.481712112188</v>
       </c>
       <c r="Y18" t="n">
-        <v>981.4623991951482</v>
+        <v>859.7214133472344</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.11910428504066</v>
+        <v>373.7028370854713</v>
       </c>
       <c r="C19" t="n">
-        <v>54.65001474522862</v>
+        <v>204.7666541575644</v>
       </c>
       <c r="D19" t="n">
-        <v>54.65001474522862</v>
+        <v>54.65001474522869</v>
       </c>
       <c r="E19" t="n">
-        <v>54.65001474522862</v>
+        <v>54.65001474522869</v>
       </c>
       <c r="F19" t="n">
-        <v>54.65001474522862</v>
+        <v>54.65001474522869</v>
       </c>
       <c r="G19" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="H19" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I19" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J19" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="K19" t="n">
         <v>168.1405915381484</v>
       </c>
       <c r="L19" t="n">
-        <v>379.0826816258175</v>
+        <v>379.0826816258174</v>
       </c>
       <c r="M19" t="n">
-        <v>611.8806624543172</v>
+        <v>611.8806624543171</v>
       </c>
       <c r="N19" t="n">
-        <v>844.5778440496399</v>
+        <v>844.5778440496398</v>
       </c>
       <c r="O19" t="n">
         <v>1043.495058868663</v>
@@ -5698,25 +5698,25 @@
         <v>1208.306061780872</v>
       </c>
       <c r="S19" t="n">
-        <v>1164.455493404177</v>
+        <v>1164.455493404176</v>
       </c>
       <c r="T19" t="n">
-        <v>1100.058978420713</v>
+        <v>1100.058978420712</v>
       </c>
       <c r="U19" t="n">
-        <v>971.3836688543522</v>
+        <v>971.3836688543518</v>
       </c>
       <c r="V19" t="n">
-        <v>822.4997758056936</v>
+        <v>877.1662740365597</v>
       </c>
       <c r="W19" t="n">
-        <v>533.0826057687329</v>
+        <v>748.2161973876939</v>
       </c>
       <c r="X19" t="n">
-        <v>305.0930548707156</v>
+        <v>615.6767876711463</v>
       </c>
       <c r="Y19" t="n">
-        <v>84.30047572718549</v>
+        <v>555.351301915711</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1156.994340046474</v>
+        <v>1338.709817470404</v>
       </c>
       <c r="C20" t="n">
-        <v>948.4989164941571</v>
+        <v>1130.214393918087</v>
       </c>
       <c r="D20" t="n">
-        <v>932.4157886994317</v>
+        <v>932.4157886994318</v>
       </c>
       <c r="E20" t="n">
-        <v>707.0946294892823</v>
+        <v>707.0946294892824</v>
       </c>
       <c r="F20" t="n">
-        <v>456.5758180877696</v>
+        <v>456.5758180877697</v>
       </c>
       <c r="G20" t="n">
-        <v>200.3545813302169</v>
+        <v>200.354581330217</v>
       </c>
       <c r="H20" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I20" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J20" t="n">
-        <v>101.151981283672</v>
+        <v>268.5576303040251</v>
       </c>
       <c r="K20" t="n">
-        <v>233.5157259013835</v>
+        <v>721.8253333671895</v>
       </c>
       <c r="L20" t="n">
-        <v>434.6264173605294</v>
+        <v>1124.217843286788</v>
       </c>
       <c r="M20" t="n">
-        <v>690.0702489346677</v>
+        <v>1379.661674860926</v>
       </c>
       <c r="N20" t="n">
-        <v>1267.852110674242</v>
+        <v>1643.85266306707</v>
       </c>
       <c r="O20" t="n">
-        <v>1845.633972413817</v>
+        <v>1879.985460408263</v>
       </c>
       <c r="P20" t="n">
-        <v>2022.425618108812</v>
+        <v>2047.01833895467</v>
       </c>
       <c r="Q20" t="n">
-        <v>2309.879447798889</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R20" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S20" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="T20" t="n">
-        <v>2281.887999758018</v>
+        <v>2281.887999758019</v>
       </c>
       <c r="U20" t="n">
-        <v>2188.695346020698</v>
+        <v>2188.695346020699</v>
       </c>
       <c r="V20" t="n">
-        <v>2018.099552065222</v>
+        <v>2018.099552065223</v>
       </c>
       <c r="W20" t="n">
-        <v>1825.797990183203</v>
+        <v>1825.797990183205</v>
       </c>
       <c r="X20" t="n">
-        <v>1612.799325310218</v>
+        <v>1794.514802734148</v>
       </c>
       <c r="Y20" t="n">
-        <v>1383.127086722501</v>
+        <v>1564.842564146431</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>950.4747343582109</v>
+        <v>950.4747343582111</v>
       </c>
       <c r="C21" t="n">
-        <v>776.0217050770839</v>
+        <v>776.0217050770841</v>
       </c>
       <c r="D21" t="n">
-        <v>627.0872954158326</v>
+        <v>627.0872954158328</v>
       </c>
       <c r="E21" t="n">
-        <v>467.8498404103772</v>
+        <v>467.8498404103773</v>
       </c>
       <c r="F21" t="n">
         <v>321.3152824372622</v>
@@ -5823,43 +5823,43 @@
         <v>184.0876102541314</v>
       </c>
       <c r="H21" t="n">
-        <v>85.23577037147683</v>
+        <v>85.23577037147687</v>
       </c>
       <c r="I21" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J21" t="n">
-        <v>60.30911088982448</v>
+        <v>185.1392358768292</v>
       </c>
       <c r="K21" t="n">
-        <v>423.5627013523597</v>
+        <v>548.3928263393643</v>
       </c>
       <c r="L21" t="n">
-        <v>606.2744364430107</v>
+        <v>917.9910073910057</v>
       </c>
       <c r="M21" t="n">
-        <v>1184.056298182585</v>
+        <v>1150.563852458271</v>
       </c>
       <c r="N21" t="n">
-        <v>1437.193299332429</v>
+        <v>1403.700853608115</v>
       </c>
       <c r="O21" t="n">
-        <v>2014.975161072004</v>
+        <v>1613.051960134167</v>
       </c>
       <c r="P21" t="n">
-        <v>2163.66481453546</v>
+        <v>2077.019754551161</v>
       </c>
       <c r="Q21" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R21" t="n">
-        <v>2326.629995268226</v>
+        <v>2326.629995268228</v>
       </c>
       <c r="S21" t="n">
-        <v>2326.629995268226</v>
+        <v>2287.476800786894</v>
       </c>
       <c r="T21" t="n">
-        <v>2251.816061912172</v>
+        <v>2091.348968524078</v>
       </c>
       <c r="U21" t="n">
         <v>2023.69133530871</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>599.186882680192</v>
+        <v>521.6159306678644</v>
       </c>
       <c r="C22" t="n">
-        <v>505.3413155782296</v>
+        <v>352.6797477399575</v>
       </c>
       <c r="D22" t="n">
-        <v>355.2246761658939</v>
+        <v>202.5631083276218</v>
       </c>
       <c r="E22" t="n">
-        <v>207.3115825835008</v>
+        <v>54.65001474522869</v>
       </c>
       <c r="F22" t="n">
-        <v>207.3115825835008</v>
+        <v>54.65001474522869</v>
       </c>
       <c r="G22" t="n">
-        <v>199.351011211167</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="H22" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I22" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J22" t="n">
-        <v>46.68944337289491</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="K22" t="n">
         <v>168.1405915381484</v>
       </c>
       <c r="L22" t="n">
-        <v>379.0826816258175</v>
+        <v>379.0826816258174</v>
       </c>
       <c r="M22" t="n">
-        <v>611.8806624543172</v>
+        <v>611.8806624543171</v>
       </c>
       <c r="N22" t="n">
-        <v>844.5778440496399</v>
+        <v>844.5778440496398</v>
       </c>
       <c r="O22" t="n">
         <v>1043.495058868663</v>
@@ -5935,25 +5935,25 @@
         <v>1208.306061780872</v>
       </c>
       <c r="S22" t="n">
-        <v>1164.455493404177</v>
+        <v>1164.455493404176</v>
       </c>
       <c r="T22" t="n">
-        <v>1100.058978420713</v>
+        <v>1100.058978420712</v>
       </c>
       <c r="U22" t="n">
-        <v>971.3836688543522</v>
+        <v>971.3836688543518</v>
       </c>
       <c r="V22" t="n">
-        <v>877.1662740365603</v>
+        <v>877.1662740365597</v>
       </c>
       <c r="W22" t="n">
-        <v>748.2161973876945</v>
+        <v>748.2161973876939</v>
       </c>
       <c r="X22" t="n">
-        <v>680.693739877772</v>
+        <v>680.6937398777713</v>
       </c>
       <c r="Y22" t="n">
-        <v>620.3682541223368</v>
+        <v>542.7973021100092</v>
       </c>
     </row>
     <row r="23">
@@ -5969,58 +5969,58 @@
         <v>1133.922873049188</v>
       </c>
       <c r="D23" t="n">
-        <v>936.1242678305323</v>
+        <v>936.1242678305325</v>
       </c>
       <c r="E23" t="n">
         <v>710.8031086203832</v>
       </c>
       <c r="F23" t="n">
-        <v>460.2842972188705</v>
+        <v>460.2842972188706</v>
       </c>
       <c r="G23" t="n">
-        <v>204.0630604613175</v>
+        <v>204.0630604613176</v>
       </c>
       <c r="H23" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="I23" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="J23" t="n">
-        <v>223.8608807254961</v>
+        <v>272.2661094351257</v>
       </c>
       <c r="K23" t="n">
-        <v>356.2246253432075</v>
+        <v>725.5338124982901</v>
       </c>
       <c r="L23" t="n">
-        <v>557.3353168023535</v>
+        <v>926.644503957436</v>
       </c>
       <c r="M23" t="n">
-        <v>1181.009607789298</v>
+        <v>1182.088335531574</v>
       </c>
       <c r="N23" t="n">
-        <v>1804.683898776243</v>
+        <v>1446.279323737719</v>
       </c>
       <c r="O23" t="n">
-        <v>2040.816696117436</v>
+        <v>1746.828695873524</v>
       </c>
       <c r="P23" t="n">
-        <v>2207.849574663843</v>
+        <v>2232.442295509699</v>
       </c>
       <c r="Q23" t="n">
-        <v>2495.30340435392</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="R23" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="S23" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="T23" t="n">
         <v>2467.311956313049</v>
       </c>
       <c r="U23" t="n">
-        <v>2374.119302575728</v>
+        <v>2374.119302575729</v>
       </c>
       <c r="V23" t="n">
         <v>2203.523508620253</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>876.9300328821953</v>
+        <v>954.1832134893117</v>
       </c>
       <c r="C24" t="n">
-        <v>702.4770036010683</v>
+        <v>779.7301842081847</v>
       </c>
       <c r="D24" t="n">
-        <v>553.542593939817</v>
+        <v>630.7957745469334</v>
       </c>
       <c r="E24" t="n">
-        <v>394.3051389343615</v>
+        <v>471.5583195414779</v>
       </c>
       <c r="F24" t="n">
-        <v>247.7705809612465</v>
+        <v>325.0237615683628</v>
       </c>
       <c r="G24" t="n">
-        <v>110.5429087781157</v>
+        <v>187.796089385232</v>
       </c>
       <c r="H24" t="n">
-        <v>88.94424950257743</v>
+        <v>88.94424950257746</v>
       </c>
       <c r="I24" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="J24" t="n">
-        <v>167.5259423088858</v>
+        <v>188.8477150079298</v>
       </c>
       <c r="K24" t="n">
-        <v>530.779532771421</v>
+        <v>552.1013054704649</v>
       </c>
       <c r="L24" t="n">
-        <v>713.4912678620719</v>
+        <v>1101.94498241154</v>
       </c>
       <c r="M24" t="n">
-        <v>946.0641129293374</v>
+        <v>1335.9878090133</v>
       </c>
       <c r="N24" t="n">
-        <v>1199.201114079182</v>
+        <v>1589.124810163145</v>
       </c>
       <c r="O24" t="n">
         <v>1798.475916689196</v>
@@ -6087,31 +6087,31 @@
         <v>2262.44371110619</v>
       </c>
       <c r="Q24" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="R24" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="S24" t="n">
-        <v>2374.399192698973</v>
+        <v>2451.652373306089</v>
       </c>
       <c r="T24" t="n">
-        <v>2178.271360436157</v>
+        <v>2255.524541043273</v>
       </c>
       <c r="U24" t="n">
-        <v>1950.146633832694</v>
+        <v>2027.399814439811</v>
       </c>
       <c r="V24" t="n">
-        <v>1714.994525600952</v>
+        <v>1792.247706208068</v>
       </c>
       <c r="W24" t="n">
-        <v>1460.75716887275</v>
+        <v>1538.010349479866</v>
       </c>
       <c r="X24" t="n">
-        <v>1252.905668667217</v>
+        <v>1330.158849274334</v>
       </c>
       <c r="Y24" t="n">
-        <v>1045.145369902263</v>
+        <v>1122.39855050938</v>
       </c>
     </row>
     <row r="25">
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>602.8953618112928</v>
+        <v>602.8953618112921</v>
       </c>
       <c r="C25" t="n">
-        <v>508.0266486248474</v>
+        <v>503.2781743689685</v>
       </c>
       <c r="D25" t="n">
-        <v>357.9100092125117</v>
+        <v>353.1615349566327</v>
       </c>
       <c r="E25" t="n">
-        <v>357.9100092125117</v>
+        <v>205.2484413742396</v>
       </c>
       <c r="F25" t="n">
-        <v>211.0200617146014</v>
+        <v>58.35849387632927</v>
       </c>
       <c r="G25" t="n">
-        <v>203.0594903422677</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="H25" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="I25" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="J25" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="K25" t="n">
-        <v>171.849070669249</v>
+        <v>171.8490706692489</v>
       </c>
       <c r="L25" t="n">
-        <v>382.7911607569181</v>
+        <v>382.791160756918</v>
       </c>
       <c r="M25" t="n">
-        <v>615.5891415854178</v>
+        <v>615.5891415854176</v>
       </c>
       <c r="N25" t="n">
-        <v>848.2863231807405</v>
+        <v>848.2863231807403</v>
       </c>
       <c r="O25" t="n">
-        <v>1047.203537999764</v>
+        <v>1047.203537999763</v>
       </c>
       <c r="P25" t="n">
-        <v>1193.890897059298</v>
+        <v>1193.890897059297</v>
       </c>
       <c r="Q25" t="n">
         <v>1212.014540911973</v>
@@ -6175,22 +6175,22 @@
         <v>1168.163972535277</v>
       </c>
       <c r="T25" t="n">
-        <v>1103.767457551814</v>
+        <v>1103.767457551813</v>
       </c>
       <c r="U25" t="n">
-        <v>975.092147985453</v>
+        <v>975.0921479854526</v>
       </c>
       <c r="V25" t="n">
-        <v>880.8747531676611</v>
+        <v>880.8747531676605</v>
       </c>
       <c r="W25" t="n">
-        <v>751.9246765187953</v>
+        <v>751.9246765187947</v>
       </c>
       <c r="X25" t="n">
-        <v>684.4022190088729</v>
+        <v>684.4022190088722</v>
       </c>
       <c r="Y25" t="n">
-        <v>624.0767332534376</v>
+        <v>624.0767332534369</v>
       </c>
     </row>
     <row r="26">
@@ -6206,55 +6206,55 @@
         <v>1582.292511914892</v>
       </c>
       <c r="D26" t="n">
-        <v>1304.260360002189</v>
+        <v>1304.260360002188</v>
       </c>
       <c r="E26" t="n">
-        <v>998.7056540979922</v>
+        <v>998.7056540979916</v>
       </c>
       <c r="F26" t="n">
-        <v>667.9532960024321</v>
+        <v>667.9532960024314</v>
       </c>
       <c r="G26" t="n">
-        <v>331.4985125508315</v>
+        <v>331.4985125508313</v>
       </c>
       <c r="H26" t="n">
-        <v>97.59982789946169</v>
+        <v>97.59982789946164</v>
       </c>
       <c r="I26" t="n">
-        <v>73.54026249367041</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J26" t="n">
-        <v>128.0028004044475</v>
+        <v>146.2350069781013</v>
       </c>
       <c r="K26" t="n">
-        <v>488.7905923491196</v>
+        <v>278.5987515958127</v>
       </c>
       <c r="L26" t="n">
-        <v>1103.385886213212</v>
+        <v>893.1940454599046</v>
       </c>
       <c r="M26" t="n">
-        <v>1803.848115945254</v>
+        <v>1593.656275191947</v>
       </c>
       <c r="N26" t="n">
-        <v>2501.012559319263</v>
+        <v>2290.820718565956</v>
       </c>
       <c r="O26" t="n">
-        <v>3114.137536110574</v>
+        <v>2903.945695357267</v>
       </c>
       <c r="P26" t="n">
-        <v>3599.751135746749</v>
+        <v>3389.559294993442</v>
       </c>
       <c r="Q26" t="n">
-        <v>3677.01312468352</v>
+        <v>3677.013124683519</v>
       </c>
       <c r="R26" t="n">
-        <v>3677.01312468352</v>
+        <v>3677.013124683519</v>
       </c>
       <c r="S26" t="n">
-        <v>3610.13413761786</v>
+        <v>3610.134137617859</v>
       </c>
       <c r="T26" t="n">
-        <v>3477.316422037085</v>
+        <v>3477.316422037084</v>
       </c>
       <c r="U26" t="n">
         <v>3303.890221605717</v>
@@ -6266,10 +6266,10 @@
         <v>2780.525772380127</v>
       </c>
       <c r="X26" t="n">
-        <v>2487.293560813095</v>
+        <v>2487.293560813094</v>
       </c>
       <c r="Y26" t="n">
-        <v>2177.387775531331</v>
+        <v>2177.38777553133</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I27" t="n">
-        <v>73.54026249367041</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J27" t="n">
-        <v>87.15993001059998</v>
+        <v>211.9900549976047</v>
       </c>
       <c r="K27" t="n">
-        <v>188.5929358306824</v>
+        <v>575.2436454601398</v>
       </c>
       <c r="L27" t="n">
-        <v>409.3866539347937</v>
+        <v>1125.087322401215</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.007512114559</v>
+        <v>1444.225502986611</v>
       </c>
       <c r="N27" t="n">
-        <v>1830.693463864521</v>
+        <v>1697.362504136455</v>
       </c>
       <c r="O27" t="n">
-        <v>2429.968266474535</v>
+        <v>1906.713610662506</v>
       </c>
       <c r="P27" t="n">
-        <v>2578.657919937991</v>
+        <v>2370.681405079501</v>
       </c>
       <c r="Q27" t="n">
         <v>2628.133819173087</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.9737676641307</v>
+        <v>565.9737676641312</v>
       </c>
       <c r="C28" t="n">
-        <v>477.2711314302713</v>
+        <v>477.2711314302717</v>
       </c>
       <c r="D28" t="n">
-        <v>407.388038711983</v>
+        <v>407.3880387119835</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7084918236373</v>
+        <v>339.7084918236378</v>
       </c>
       <c r="F28" t="n">
-        <v>273.0520910197744</v>
+        <v>273.0520910197749</v>
       </c>
       <c r="G28" t="n">
-        <v>184.8579729533932</v>
+        <v>184.8579729533938</v>
       </c>
       <c r="H28" t="n">
         <v>112.429951809169</v>
       </c>
       <c r="I28" t="n">
-        <v>73.54026249367041</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J28" t="n">
         <v>147.0742273486941</v>
@@ -6391,10 +6391,10 @@
         <v>636.7412638312884</v>
       </c>
       <c r="M28" t="n">
-        <v>948.1761437746239</v>
+        <v>948.1761437746236</v>
       </c>
       <c r="N28" t="n">
-        <v>1259.510224484783</v>
+        <v>1259.510224484782</v>
       </c>
       <c r="O28" t="n">
         <v>1537.064338418641</v>
@@ -6403,13 +6403,13 @@
         <v>1762.388596593011</v>
       </c>
       <c r="Q28" t="n">
-        <v>1859.149139560523</v>
+        <v>1859.149139560522</v>
       </c>
       <c r="R28" t="n">
         <v>1816.961320317191</v>
       </c>
       <c r="S28" t="n">
-        <v>1692.877205246449</v>
+        <v>1692.877205246448</v>
       </c>
       <c r="T28" t="n">
         <v>1548.247143568937</v>
@@ -6421,13 +6421,13 @@
         <v>1164.887345796689</v>
       </c>
       <c r="W28" t="n">
-        <v>955.7037224537762</v>
+        <v>955.7037224537761</v>
       </c>
       <c r="X28" t="n">
-        <v>807.9477182498061</v>
+        <v>807.9477182498063</v>
       </c>
       <c r="Y28" t="n">
-        <v>667.3886858003229</v>
+        <v>667.3886858003234</v>
       </c>
     </row>
     <row r="29">
@@ -6446,61 +6446,61 @@
         <v>1304.260360002188</v>
       </c>
       <c r="E29" t="n">
-        <v>998.7056540979911</v>
+        <v>998.7056540979912</v>
       </c>
       <c r="F29" t="n">
-        <v>667.953296002431</v>
+        <v>667.9532960024312</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4985125508315</v>
+        <v>331.4985125508311</v>
       </c>
       <c r="H29" t="n">
-        <v>97.59982789946173</v>
+        <v>97.59982789946163</v>
       </c>
       <c r="I29" t="n">
-        <v>73.54026249367041</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J29" t="n">
-        <v>295.4084494248006</v>
+        <v>295.4084494248005</v>
       </c>
       <c r="K29" t="n">
-        <v>748.6761524879651</v>
+        <v>748.6761524879649</v>
       </c>
       <c r="L29" t="n">
-        <v>949.786843947111</v>
+        <v>1270.186224910022</v>
       </c>
       <c r="M29" t="n">
-        <v>1650.249073679153</v>
+        <v>1970.648454642065</v>
       </c>
       <c r="N29" t="n">
-        <v>2347.413517053162</v>
+        <v>2667.812898016074</v>
       </c>
       <c r="O29" t="n">
-        <v>2879.352974511412</v>
+        <v>2903.945695357267</v>
       </c>
       <c r="P29" t="n">
-        <v>3364.966574147587</v>
+        <v>3389.559294993442</v>
       </c>
       <c r="Q29" t="n">
-        <v>3652.420403837664</v>
+        <v>3677.013124683519</v>
       </c>
       <c r="R29" t="n">
-        <v>3677.01312468352</v>
+        <v>3677.013124683519</v>
       </c>
       <c r="S29" t="n">
-        <v>3610.13413761786</v>
+        <v>3610.134137617859</v>
       </c>
       <c r="T29" t="n">
-        <v>3477.316422037085</v>
+        <v>3477.316422037084</v>
       </c>
       <c r="U29" t="n">
-        <v>3303.890221605717</v>
+        <v>3303.890221605716</v>
       </c>
       <c r="V29" t="n">
-        <v>3053.060880956194</v>
+        <v>3053.060880956193</v>
       </c>
       <c r="W29" t="n">
-        <v>2780.525772380127</v>
+        <v>2780.525772380126</v>
       </c>
       <c r="X29" t="n">
         <v>2487.293560813094</v>
@@ -6537,28 +6537,28 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I30" t="n">
-        <v>73.54026249367041</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J30" t="n">
-        <v>87.15993001059998</v>
+        <v>211.9900549976047</v>
       </c>
       <c r="K30" t="n">
-        <v>226.6749188441428</v>
+        <v>575.2436454601398</v>
       </c>
       <c r="L30" t="n">
-        <v>409.3866539347937</v>
+        <v>1125.087322401215</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.007512114559</v>
+        <v>1444.225502986611</v>
       </c>
       <c r="N30" t="n">
-        <v>1830.693463864521</v>
+        <v>1697.362504136455</v>
       </c>
       <c r="O30" t="n">
-        <v>2429.968266474535</v>
+        <v>1906.713610662506</v>
       </c>
       <c r="P30" t="n">
-        <v>2578.657919937991</v>
+        <v>2370.681405079501</v>
       </c>
       <c r="Q30" t="n">
         <v>2628.133819173087</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.9737676641311</v>
+        <v>565.9737676641319</v>
       </c>
       <c r="C31" t="n">
-        <v>477.2711314302716</v>
+        <v>477.2711314302724</v>
       </c>
       <c r="D31" t="n">
-        <v>407.3880387119832</v>
+        <v>407.3880387119841</v>
       </c>
       <c r="E31" t="n">
-        <v>339.7084918236375</v>
+        <v>339.7084918236385</v>
       </c>
       <c r="F31" t="n">
-        <v>273.0520910197745</v>
+        <v>273.0520910197747</v>
       </c>
       <c r="G31" t="n">
-        <v>184.8579729533933</v>
+        <v>184.8579729533936</v>
       </c>
       <c r="H31" t="n">
-        <v>112.4299518091691</v>
+        <v>112.4299518091689</v>
       </c>
       <c r="I31" t="n">
-        <v>73.54026249367041</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J31" t="n">
-        <v>147.0742273486944</v>
+        <v>147.0742273486943</v>
       </c>
       <c r="K31" t="n">
-        <v>347.1622746287837</v>
+        <v>347.1622746287841</v>
       </c>
       <c r="L31" t="n">
-        <v>636.7412638312887</v>
+        <v>636.7412638312891</v>
       </c>
       <c r="M31" t="n">
-        <v>948.1761437746241</v>
+        <v>948.1761437746246</v>
       </c>
       <c r="N31" t="n">
         <v>1259.510224484783</v>
       </c>
       <c r="O31" t="n">
-        <v>1537.064338418641</v>
+        <v>1537.064338418642</v>
       </c>
       <c r="P31" t="n">
-        <v>1762.388596593011</v>
+        <v>1762.388596593012</v>
       </c>
       <c r="Q31" t="n">
-        <v>1859.149139560522</v>
+        <v>1859.149139560523</v>
       </c>
       <c r="R31" t="n">
-        <v>1816.961320317191</v>
+        <v>1816.961320317192</v>
       </c>
       <c r="S31" t="n">
-        <v>1692.877205246448</v>
+        <v>1692.877205246449</v>
       </c>
       <c r="T31" t="n">
-        <v>1548.247143568937</v>
+        <v>1548.247143568938</v>
       </c>
       <c r="U31" t="n">
-        <v>1339.338287308529</v>
+        <v>1339.33828730853</v>
       </c>
       <c r="V31" t="n">
-        <v>1164.887345796689</v>
+        <v>1164.88734579669</v>
       </c>
       <c r="W31" t="n">
-        <v>955.703722453776</v>
+        <v>955.7037224537769</v>
       </c>
       <c r="X31" t="n">
-        <v>807.947718249806</v>
+        <v>807.9477182498071</v>
       </c>
       <c r="Y31" t="n">
-        <v>667.3886858003234</v>
+        <v>667.3886858003241</v>
       </c>
     </row>
     <row r="32">
@@ -6683,40 +6683,40 @@
         <v>1304.260360002189</v>
       </c>
       <c r="E32" t="n">
-        <v>998.705654097992</v>
+        <v>998.7056540979925</v>
       </c>
       <c r="F32" t="n">
-        <v>667.9532960024319</v>
+        <v>667.953296002432</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4985125508312</v>
+        <v>331.4985125508318</v>
       </c>
       <c r="H32" t="n">
         <v>97.59982789946169</v>
       </c>
       <c r="I32" t="n">
-        <v>73.54026249367041</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J32" t="n">
-        <v>295.4084494248006</v>
+        <v>295.4084494248005</v>
       </c>
       <c r="K32" t="n">
-        <v>748.6761524879651</v>
+        <v>699.0244289078616</v>
       </c>
       <c r="L32" t="n">
-        <v>1363.271446352057</v>
+        <v>1313.619722771954</v>
       </c>
       <c r="M32" t="n">
-        <v>1618.715277926195</v>
+        <v>1569.063554346092</v>
       </c>
       <c r="N32" t="n">
-        <v>2315.879721300204</v>
+        <v>2266.227997720101</v>
       </c>
       <c r="O32" t="n">
-        <v>2929.004698091515</v>
+        <v>2879.352974511412</v>
       </c>
       <c r="P32" t="n">
-        <v>3364.966574147587</v>
+        <v>3364.966574147586</v>
       </c>
       <c r="Q32" t="n">
         <v>3652.420403837664</v>
@@ -6774,22 +6774,22 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I33" t="n">
-        <v>73.54026249367041</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J33" t="n">
         <v>211.9900549976047</v>
       </c>
       <c r="K33" t="n">
-        <v>575.24364546014</v>
+        <v>575.2436454601398</v>
       </c>
       <c r="L33" t="n">
-        <v>757.9553805507909</v>
+        <v>1125.087322401215</v>
       </c>
       <c r="M33" t="n">
-        <v>990.5282256180564</v>
+        <v>1444.225502986611</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.438808052493</v>
+        <v>1697.362504136455</v>
       </c>
       <c r="O33" t="n">
         <v>1906.713610662506</v>
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.9737676641319</v>
+        <v>565.9737676641312</v>
       </c>
       <c r="C34" t="n">
-        <v>477.2711314302723</v>
+        <v>477.2711314302717</v>
       </c>
       <c r="D34" t="n">
-        <v>407.388038711984</v>
+        <v>407.3880387119834</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7084918236383</v>
+        <v>339.7084918236378</v>
       </c>
       <c r="F34" t="n">
-        <v>273.0520910197754</v>
+        <v>273.0520910197748</v>
       </c>
       <c r="G34" t="n">
-        <v>184.8579729533942</v>
+        <v>184.8579729533937</v>
       </c>
       <c r="H34" t="n">
         <v>112.429951809169</v>
       </c>
       <c r="I34" t="n">
-        <v>73.54026249367041</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J34" t="n">
-        <v>147.0742273486942</v>
+        <v>147.0742273486941</v>
       </c>
       <c r="K34" t="n">
-        <v>347.1622746287836</v>
+        <v>347.1622746287835</v>
       </c>
       <c r="L34" t="n">
-        <v>636.7412638312883</v>
+        <v>636.7412638312884</v>
       </c>
       <c r="M34" t="n">
-        <v>948.1761437746241</v>
+        <v>948.1761437746238</v>
       </c>
       <c r="N34" t="n">
         <v>1259.510224484783</v>
       </c>
       <c r="O34" t="n">
-        <v>1537.064338418642</v>
+        <v>1537.064338418641</v>
       </c>
       <c r="P34" t="n">
-        <v>1762.388596593012</v>
+        <v>1762.388596593011</v>
       </c>
       <c r="Q34" t="n">
-        <v>1859.149139560523</v>
+        <v>1859.149139560522</v>
       </c>
       <c r="R34" t="n">
         <v>1816.961320317191</v>
       </c>
       <c r="S34" t="n">
-        <v>1692.877205246449</v>
+        <v>1692.877205246448</v>
       </c>
       <c r="T34" t="n">
         <v>1548.247143568937</v>
@@ -6892,16 +6892,16 @@
         <v>1339.338287308529</v>
       </c>
       <c r="V34" t="n">
-        <v>1164.88734579669</v>
+        <v>1164.887345796689</v>
       </c>
       <c r="W34" t="n">
-        <v>955.7037224537765</v>
+        <v>955.7037224537761</v>
       </c>
       <c r="X34" t="n">
-        <v>807.9477182498067</v>
+        <v>807.947718249806</v>
       </c>
       <c r="Y34" t="n">
-        <v>667.3886858003241</v>
+        <v>667.3886858003234</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1426.088700803848</v>
+        <v>1426.088700803849</v>
       </c>
       <c r="C35" t="n">
-        <v>1204.238717623144</v>
+        <v>1204.238717623145</v>
       </c>
       <c r="D35" t="n">
-        <v>993.0855527761015</v>
+        <v>993.0855527761022</v>
       </c>
       <c r="E35" t="n">
-        <v>754.4098339375651</v>
+        <v>754.4098339375657</v>
       </c>
       <c r="F35" t="n">
-        <v>490.5364629076653</v>
+        <v>490.536462907666</v>
       </c>
       <c r="G35" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J35" t="n">
-        <v>275.8091558671467</v>
+        <v>108.4035068467937</v>
       </c>
       <c r="K35" t="n">
-        <v>729.0768589303112</v>
+        <v>555.0270498848889</v>
       </c>
       <c r="L35" t="n">
-        <v>930.1875503894572</v>
+        <v>756.1377413440348</v>
       </c>
       <c r="M35" t="n">
-        <v>1185.631381963595</v>
+        <v>1423.65723192724</v>
       </c>
       <c r="N35" t="n">
-        <v>1449.82237016974</v>
+        <v>1687.848220133385</v>
       </c>
       <c r="O35" t="n">
-        <v>1923.981017474577</v>
+        <v>1923.981017474578</v>
       </c>
       <c r="P35" t="n">
-        <v>2409.594617110752</v>
+        <v>2409.594617110753</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="T35" t="n">
         <v>2631.109718285715</v>
       </c>
       <c r="U35" t="n">
-        <v>2524.562504920007</v>
+        <v>2524.562504920008</v>
       </c>
       <c r="V35" t="n">
-        <v>2340.612151336144</v>
+        <v>2340.612151336145</v>
       </c>
       <c r="W35" t="n">
-        <v>2134.956029825738</v>
+        <v>2134.956029825739</v>
       </c>
       <c r="X35" t="n">
-        <v>1908.602805324366</v>
+        <v>1908.602805324367</v>
       </c>
       <c r="Y35" t="n">
-        <v>1665.576007108262</v>
+        <v>1665.576007108263</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H36" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J36" t="n">
         <v>192.3907614399509</v>
       </c>
       <c r="K36" t="n">
-        <v>555.6443519024862</v>
+        <v>555.6443519024861</v>
       </c>
       <c r="L36" t="n">
-        <v>802.1296682777295</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M36" t="n">
-        <v>1034.702513344995</v>
+        <v>1424.626209428958</v>
       </c>
       <c r="N36" t="n">
-        <v>1287.839514494839</v>
+        <v>1677.763210578802</v>
       </c>
       <c r="O36" t="n">
         <v>1887.114317104853</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>499.6019312162165</v>
+        <v>253.545982418522</v>
       </c>
       <c r="C37" t="n">
-        <v>330.6657482883096</v>
+        <v>231.7223332503228</v>
       </c>
       <c r="D37" t="n">
-        <v>327.6616426356816</v>
+        <v>81.6056938379871</v>
       </c>
       <c r="E37" t="n">
-        <v>326.8610828129963</v>
+        <v>80.80513401530176</v>
       </c>
       <c r="F37" t="n">
-        <v>326.8610828129963</v>
+        <v>80.80513401530176</v>
       </c>
       <c r="G37" t="n">
-        <v>178.613239024127</v>
+        <v>59.49000301458096</v>
       </c>
       <c r="H37" t="n">
-        <v>173.0642049455626</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="K37" t="n">
         <v>175.39211710127</v>
@@ -7102,10 +7102,10 @@
         <v>386.3342071889391</v>
       </c>
       <c r="M37" t="n">
-        <v>619.1321880174388</v>
+        <v>619.1321880174387</v>
       </c>
       <c r="N37" t="n">
-        <v>851.8293696127615</v>
+        <v>851.8293696127614</v>
       </c>
       <c r="O37" t="n">
         <v>1050.746584431784</v>
@@ -7117,28 +7117,28 @@
         <v>1215.557587343994</v>
       </c>
       <c r="R37" t="n">
-        <v>1215.557587343994</v>
+        <v>1093.136221406615</v>
       </c>
       <c r="S37" t="n">
-        <v>1158.352459338911</v>
+        <v>1035.931093401533</v>
       </c>
       <c r="T37" t="n">
-        <v>1080.60138472706</v>
+        <v>958.1800187896814</v>
       </c>
       <c r="U37" t="n">
-        <v>938.5715155323123</v>
+        <v>692.5155667346178</v>
       </c>
       <c r="V37" t="n">
-        <v>830.9995610861332</v>
+        <v>584.9436122884387</v>
       </c>
       <c r="W37" t="n">
-        <v>688.6949248088804</v>
+        <v>442.6389760111858</v>
       </c>
       <c r="X37" t="n">
-        <v>607.8179076705708</v>
+        <v>361.7619588728763</v>
       </c>
       <c r="Y37" t="n">
-        <v>534.1378622867485</v>
+        <v>288.0819134890539</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1426.088700803848</v>
+        <v>1426.088700803849</v>
       </c>
       <c r="C38" t="n">
         <v>1204.238717623145</v>
       </c>
       <c r="D38" t="n">
-        <v>993.0855527761017</v>
+        <v>993.0855527761023</v>
       </c>
       <c r="E38" t="n">
-        <v>754.4098339375653</v>
+        <v>754.409833937566</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5364629076655</v>
+        <v>490.5364629076663</v>
       </c>
       <c r="G38" t="n">
-        <v>220.9606665217257</v>
+        <v>220.9606665217256</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J38" t="n">
         <v>275.8091558671467</v>
       </c>
       <c r="K38" t="n">
-        <v>729.0768589303112</v>
+        <v>408.1729004848581</v>
       </c>
       <c r="L38" t="n">
-        <v>930.1875503894572</v>
+        <v>609.283591944004</v>
       </c>
       <c r="M38" t="n">
-        <v>1185.631381963595</v>
+        <v>1276.803082527209</v>
       </c>
       <c r="N38" t="n">
-        <v>1449.82237016974</v>
+        <v>1540.994070733354</v>
       </c>
       <c r="O38" t="n">
-        <v>1923.981017474577</v>
+        <v>1923.981017474578</v>
       </c>
       <c r="P38" t="n">
-        <v>2409.594617110752</v>
+        <v>2409.594617110753</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="S38" t="n">
         <v>2697.048446800829</v>
@@ -7214,7 +7214,7 @@
         <v>2134.956029825739</v>
       </c>
       <c r="X38" t="n">
-        <v>1908.602805324366</v>
+        <v>1908.602805324367</v>
       </c>
       <c r="Y38" t="n">
         <v>1665.576007108263</v>
@@ -7245,22 +7245,22 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H39" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J39" t="n">
         <v>192.3907614399509</v>
       </c>
       <c r="K39" t="n">
-        <v>555.6443519024862</v>
+        <v>555.6443519024861</v>
       </c>
       <c r="L39" t="n">
         <v>1105.488028843562</v>
       </c>
       <c r="M39" t="n">
-        <v>1424.626209428957</v>
+        <v>1424.626209428958</v>
       </c>
       <c r="N39" t="n">
         <v>1677.763210578802</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>230.0680315191302</v>
+        <v>499.6019312162171</v>
       </c>
       <c r="C40" t="n">
-        <v>208.2443823509311</v>
+        <v>477.778282048018</v>
       </c>
       <c r="D40" t="n">
-        <v>205.2402766983031</v>
+        <v>375.6081750956051</v>
       </c>
       <c r="E40" t="n">
-        <v>204.4397168756178</v>
+        <v>227.695081513212</v>
       </c>
       <c r="F40" t="n">
-        <v>204.4397168756178</v>
+        <v>80.80513401530165</v>
       </c>
       <c r="G40" t="n">
-        <v>183.124585874897</v>
+        <v>59.4900030145809</v>
       </c>
       <c r="H40" t="n">
-        <v>177.5755517963326</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="I40" t="n">
-        <v>58.4523157867866</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="K40" t="n">
         <v>175.39211710127</v>
@@ -7339,10 +7339,10 @@
         <v>386.3342071889391</v>
       </c>
       <c r="M40" t="n">
-        <v>619.1321880174388</v>
+        <v>619.1321880174387</v>
       </c>
       <c r="N40" t="n">
-        <v>851.8293696127615</v>
+        <v>851.8293696127614</v>
       </c>
       <c r="O40" t="n">
         <v>1050.746584431784</v>
@@ -7354,28 +7354,28 @@
         <v>1215.557587343994</v>
       </c>
       <c r="R40" t="n">
-        <v>1093.136221406615</v>
+        <v>1215.557587343994</v>
       </c>
       <c r="S40" t="n">
-        <v>1035.931093401533</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T40" t="n">
-        <v>958.1800187896814</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U40" t="n">
-        <v>669.037615835226</v>
+        <v>938.5715155323126</v>
       </c>
       <c r="V40" t="n">
-        <v>561.4656613890469</v>
+        <v>830.9995610861336</v>
       </c>
       <c r="W40" t="n">
-        <v>419.1610251117941</v>
+        <v>688.6949248088807</v>
       </c>
       <c r="X40" t="n">
-        <v>338.2840079734845</v>
+        <v>607.8179076705712</v>
       </c>
       <c r="Y40" t="n">
-        <v>264.6039625896622</v>
+        <v>534.1378622867489</v>
       </c>
     </row>
     <row r="41">
@@ -7391,55 +7391,55 @@
         <v>1204.238717623144</v>
       </c>
       <c r="D41" t="n">
-        <v>993.0855527761016</v>
+        <v>993.0855527761012</v>
       </c>
       <c r="E41" t="n">
-        <v>754.4098339375652</v>
+        <v>754.4098339375651</v>
       </c>
       <c r="F41" t="n">
-        <v>490.5364629076654</v>
+        <v>490.5364629076653</v>
       </c>
       <c r="G41" t="n">
-        <v>220.9606665217257</v>
+        <v>220.9606665217256</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J41" t="n">
         <v>275.8091558671467</v>
       </c>
       <c r="K41" t="n">
-        <v>408.1729004848581</v>
+        <v>729.0768589303111</v>
       </c>
       <c r="L41" t="n">
-        <v>609.2835919440041</v>
+        <v>1168.213400353102</v>
       </c>
       <c r="M41" t="n">
-        <v>1276.803082527209</v>
+        <v>1423.65723192724</v>
       </c>
       <c r="N41" t="n">
-        <v>1540.994070733354</v>
+        <v>1687.848220133385</v>
       </c>
       <c r="O41" t="n">
-        <v>1899.388296628721</v>
+        <v>1923.981017474578</v>
       </c>
       <c r="P41" t="n">
-        <v>2385.001896264896</v>
+        <v>2409.594617110753</v>
       </c>
       <c r="Q41" t="n">
-        <v>2672.455725954973</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="S41" t="n">
         <v>2697.048446800829</v>
       </c>
       <c r="T41" t="n">
-        <v>2631.109718285715</v>
+        <v>2631.109718285714</v>
       </c>
       <c r="U41" t="n">
         <v>2524.562504920007</v>
@@ -7482,25 +7482,25 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H42" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J42" t="n">
         <v>192.3907614399509</v>
       </c>
       <c r="K42" t="n">
-        <v>555.6443519024862</v>
+        <v>555.6443519024861</v>
       </c>
       <c r="L42" t="n">
-        <v>802.1296682777295</v>
+        <v>757.1067188457521</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.702513344995</v>
+        <v>1424.626209428958</v>
       </c>
       <c r="N42" t="n">
-        <v>1287.839514494839</v>
+        <v>1677.763210578802</v>
       </c>
       <c r="O42" t="n">
         <v>1887.114317104853</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>352.4893974565088</v>
+        <v>499.6019312162171</v>
       </c>
       <c r="C43" t="n">
-        <v>231.7223332503228</v>
+        <v>477.778282048018</v>
       </c>
       <c r="D43" t="n">
-        <v>81.60569383798709</v>
+        <v>474.77417639539</v>
       </c>
       <c r="E43" t="n">
-        <v>80.80513401530175</v>
+        <v>473.9736165727048</v>
       </c>
       <c r="F43" t="n">
-        <v>80.80513401530175</v>
+        <v>327.0836690747944</v>
       </c>
       <c r="G43" t="n">
-        <v>59.49000301458095</v>
+        <v>158.6560043143659</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="K43" t="n">
         <v>175.39211710127</v>
@@ -7576,10 +7576,10 @@
         <v>386.3342071889391</v>
       </c>
       <c r="M43" t="n">
-        <v>619.1321880174388</v>
+        <v>619.1321880174387</v>
       </c>
       <c r="N43" t="n">
-        <v>851.8293696127615</v>
+        <v>851.8293696127614</v>
       </c>
       <c r="O43" t="n">
         <v>1050.746584431784</v>
@@ -7600,19 +7600,19 @@
         <v>1080.60138472706</v>
       </c>
       <c r="U43" t="n">
-        <v>938.5715155323123</v>
+        <v>938.5715155323126</v>
       </c>
       <c r="V43" t="n">
-        <v>830.9995610861332</v>
+        <v>830.9995610861336</v>
       </c>
       <c r="W43" t="n">
-        <v>688.6949248088804</v>
+        <v>688.6949248088807</v>
       </c>
       <c r="X43" t="n">
-        <v>607.8179076705708</v>
+        <v>607.8179076705712</v>
       </c>
       <c r="Y43" t="n">
-        <v>534.1378622867485</v>
+        <v>534.1378622867489</v>
       </c>
     </row>
     <row r="44">
@@ -7625,40 +7625,40 @@
         <v>1426.088700803848</v>
       </c>
       <c r="C44" t="n">
-        <v>1204.238717623144</v>
+        <v>1204.238717623145</v>
       </c>
       <c r="D44" t="n">
-        <v>993.0855527761014</v>
+        <v>993.0855527761021</v>
       </c>
       <c r="E44" t="n">
-        <v>754.4098339375653</v>
+        <v>754.409833937566</v>
       </c>
       <c r="F44" t="n">
-        <v>490.5364629076654</v>
+        <v>490.5364629076662</v>
       </c>
       <c r="G44" t="n">
-        <v>220.9606665217257</v>
+        <v>220.9606665217256</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J44" t="n">
         <v>275.8091558671467</v>
       </c>
       <c r="K44" t="n">
-        <v>530.4343290390321</v>
+        <v>729.0768589303111</v>
       </c>
       <c r="L44" t="n">
-        <v>731.5450204981781</v>
+        <v>930.187550389457</v>
       </c>
       <c r="M44" t="n">
-        <v>1399.064511081383</v>
+        <v>1185.631381963595</v>
       </c>
       <c r="N44" t="n">
-        <v>1663.255499287528</v>
+        <v>1449.82237016974</v>
       </c>
       <c r="O44" t="n">
         <v>1899.388296628721</v>
@@ -7667,13 +7667,13 @@
         <v>2385.001896264896</v>
       </c>
       <c r="Q44" t="n">
-        <v>2672.455725954973</v>
+        <v>2672.455725954974</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="T44" t="n">
         <v>2631.109718285715</v>
@@ -7691,7 +7691,7 @@
         <v>1908.602805324366</v>
       </c>
       <c r="Y44" t="n">
-        <v>1665.576007108262</v>
+        <v>1665.576007108263</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H45" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J45" t="n">
         <v>192.3907614399509</v>
       </c>
       <c r="K45" t="n">
-        <v>293.8237672600333</v>
+        <v>555.6443519024861</v>
       </c>
       <c r="L45" t="n">
-        <v>476.5355023506843</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M45" t="n">
-        <v>1144.054992933889</v>
+        <v>1424.626209428958</v>
       </c>
       <c r="N45" t="n">
-        <v>1811.094170306868</v>
+        <v>1677.763210578802</v>
       </c>
       <c r="O45" t="n">
-        <v>2410.368972916882</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P45" t="n">
-        <v>2559.058626380338</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q45" t="n">
         <v>2608.534525615434</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>106.433448658814</v>
+        <v>253.5459824185217</v>
       </c>
       <c r="C46" t="n">
-        <v>84.60979949061493</v>
+        <v>84.60979949061482</v>
       </c>
       <c r="D46" t="n">
-        <v>81.605693837987</v>
+        <v>81.60569383798693</v>
       </c>
       <c r="E46" t="n">
-        <v>80.80513401530169</v>
+        <v>80.80513401530165</v>
       </c>
       <c r="F46" t="n">
-        <v>80.80513401530169</v>
+        <v>80.80513401530165</v>
       </c>
       <c r="G46" t="n">
-        <v>59.49000301458092</v>
+        <v>59.4900030145809</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="K46" t="n">
         <v>175.39211710127</v>
@@ -7813,10 +7813,10 @@
         <v>386.3342071889391</v>
       </c>
       <c r="M46" t="n">
-        <v>619.1321880174388</v>
+        <v>619.1321880174387</v>
       </c>
       <c r="N46" t="n">
-        <v>851.8293696127615</v>
+        <v>851.8293696127614</v>
       </c>
       <c r="O46" t="n">
         <v>1050.746584431784</v>
@@ -7831,25 +7831,25 @@
         <v>1215.557587343994</v>
       </c>
       <c r="S46" t="n">
-        <v>1158.352459338911</v>
+        <v>1011.239925579203</v>
       </c>
       <c r="T46" t="n">
-        <v>933.4888509673522</v>
+        <v>933.4888509673524</v>
       </c>
       <c r="U46" t="n">
-        <v>692.5155667346176</v>
+        <v>791.4589817726048</v>
       </c>
       <c r="V46" t="n">
-        <v>584.9436122884384</v>
+        <v>683.8870273264258</v>
       </c>
       <c r="W46" t="n">
-        <v>442.6389760111856</v>
+        <v>541.582391049173</v>
       </c>
       <c r="X46" t="n">
-        <v>361.7619588728761</v>
+        <v>460.7053739108635</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.9693797293459</v>
+        <v>387.0253285270412</v>
       </c>
     </row>
   </sheetData>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>325.5939698640776</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>203.3149681418684</v>
+        <v>201.8664108489583</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>40.87528770545092</v>
+        <v>40.87528770545094</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,22 +8772,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>327.9241016057881</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>28.0111302717745</v>
       </c>
       <c r="P12" t="n">
-        <v>179.3128548735311</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>183.295991919952</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>380.4759295761909</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>345.1000650488708</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>93.83125063029058</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.87528770545092</v>
+        <v>40.87528770545094</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>82.39907954850153</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>188.7741878393845</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.65822266475405</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,22 +9170,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>325.5939698640776</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>345.1000650488702</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>177.0252786814268</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>40.87528770545092</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>281.7031016285026</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>327.9241016057887</v>
       </c>
       <c r="O18" t="n">
-        <v>372.1522779934575</v>
+        <v>372.152277993458</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.6991975817736</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>203.314968141871</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>316.7584581145758</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>345.1000650488702</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>9.85734055412928</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545094</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>188.7741878393844</v>
       </c>
       <c r="M21" t="n">
-        <v>348.6959764366758</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>372.1522779934575</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>122.557025125444</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>120.2024447583065</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>371.9499590028347</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>363.1144472533335</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>65.06724726728564</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545094</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,22 +9714,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>104.5538911999603</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.48482983282284</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>18.41637027641804</v>
       </c>
       <c r="K26" t="n">
-        <v>230.7313609363239</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>40.87528770545092</v>
+        <v>40.87528770545094</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>38.46664950854577</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>87.43973284659609</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>323.6357383463754</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>298.7946061788451</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545094</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>38.46664950854577</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>87.43973284659609</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>273.9921564296462</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>271.6454520299645</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10431,16 +10431,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>87.43973284659609</v>
       </c>
       <c r="N33" t="n">
-        <v>64.41775887332514</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>317.4341398185696</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>416.2380394030982</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>240.4301514784284</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>40.87528770545092</v>
+        <v>40.87528770545094</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,16 +10668,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>64.41775887332562</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>87.43973284659654</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,19 +10823,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>416.2380394030982</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>240.4301514784284</v>
+        <v>148.3375246464957</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>40.87528770545092</v>
+        <v>40.87528770545094</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>87.43973284659626</v>
+        <v>87.43973284659654</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>240.4301514784294</v>
       </c>
       <c r="M41" t="n">
-        <v>416.238039403098</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>123.4963924789637</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545094</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,16 +11142,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>64.41775887332562</v>
+        <v>18.94003217435875</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>439.3400459756969</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,19 +11297,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>123.4963924789636</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>416.238039403098</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>215.5890193108978</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>439.3400459756968</v>
+        <v>87.43973284659654</v>
       </c>
       <c r="N45" t="n">
-        <v>418.0830062859941</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>285.8416805439006</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>333.0902356170842</v>
+        <v>219.1052224311332</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I11" t="n">
-        <v>23.81896975173335</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>131.4895384249674</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>10.16200647779899</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>248.3210472430279</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>269.8097574903061</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>54.67962902192502</v>
       </c>
       <c r="D14" t="n">
         <v>275.251830393576</v>
       </c>
       <c r="E14" t="n">
-        <v>302.4991588451549</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>327.4448345146045</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>231.5596978048558</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>23.81896975173335</v>
+        <v>23.81896975173339</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.21019719500373</v>
+        <v>66.21019719500376</v>
       </c>
       <c r="T14" t="n">
-        <v>131.4895384249674</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>171.691938427054</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>100.0119047064736</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="15">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>179.8983226496905</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>92.2607271999471</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>87.63759544974278</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>179.8983226496908</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>179.8983226496891</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>4.973799150320701e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-2.629008122312371e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>709089.702738416</v>
+        <v>709089.7027384161</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>709089.702738416</v>
+        <v>709089.7027384161</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789515.2678985095</v>
+        <v>789515.2678985096</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789515.2678985095</v>
+        <v>789515.2678985096</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>811920.3024244775</v>
+        <v>811920.3024244776</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>852219.0711209114</v>
+        <v>852219.0711209113</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>852219.0711209114</v>
+        <v>852219.0711209113</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>819401.7368262487</v>
+        <v>819401.7368262488</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>819401.7368262487</v>
+        <v>819401.7368262488</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>819401.7368262487</v>
+        <v>819401.7368262488</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>819401.7368262487</v>
+        <v>819401.7368262488</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>696384.8879094828</v>
+      </c>
+      <c r="C2" t="n">
+        <v>696384.8879094828</v>
+      </c>
+      <c r="D2" t="n">
         <v>696384.8879094829</v>
-      </c>
-      <c r="C2" t="n">
-        <v>696384.8879094827</v>
-      </c>
-      <c r="D2" t="n">
-        <v>696384.8879094828</v>
       </c>
       <c r="E2" t="n">
         <v>609756.1056674081</v>
       </c>
       <c r="F2" t="n">
-        <v>609756.1056674083</v>
+        <v>609756.1056674086</v>
       </c>
       <c r="G2" t="n">
-        <v>685713.5838741635</v>
+        <v>685713.5838741632</v>
       </c>
       <c r="H2" t="n">
-        <v>685713.5838741629</v>
+        <v>685713.5838741632</v>
       </c>
       <c r="I2" t="n">
         <v>697885.5043846418</v>
       </c>
       <c r="J2" t="n">
+        <v>697885.5043846399</v>
+      </c>
+      <c r="K2" t="n">
+        <v>697885.5043846398</v>
+      </c>
+      <c r="L2" t="n">
         <v>697885.50438464</v>
       </c>
-      <c r="K2" t="n">
-        <v>697885.5043846403</v>
-      </c>
-      <c r="L2" t="n">
-        <v>697885.5043846401</v>
-      </c>
       <c r="M2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="N2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846414</v>
       </c>
       <c r="O2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="P2" t="n">
         <v>697885.5043846412</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12327.03098776757</v>
+        <v>12327.03098776748</v>
       </c>
       <c r="J3" t="n">
-        <v>75688.18005323119</v>
+        <v>75688.18005323107</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63544.9689816856</v>
+        <v>63544.96898168553</v>
       </c>
       <c r="M3" t="n">
-        <v>137355.3289379698</v>
+        <v>137355.3289379699</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>436273.8797192482</v>
       </c>
       <c r="E4" t="n">
-        <v>150591.8022177842</v>
+        <v>150591.8022177843</v>
       </c>
       <c r="F4" t="n">
         <v>150591.8022177843</v>
       </c>
       <c r="G4" t="n">
-        <v>201402.0326272212</v>
+        <v>201402.0326272213</v>
       </c>
       <c r="H4" t="n">
-        <v>201402.0326272212</v>
+        <v>201402.0326272213</v>
       </c>
       <c r="I4" t="n">
         <v>206599.1074736612</v>
@@ -26448,10 +26448,10 @@
         <v>194191.118073848</v>
       </c>
       <c r="M4" t="n">
-        <v>204259.4638285998</v>
+        <v>204259.4638285999</v>
       </c>
       <c r="N4" t="n">
-        <v>204259.4638285998</v>
+        <v>204259.4638285999</v>
       </c>
       <c r="O4" t="n">
         <v>204259.4638285999</v>
@@ -26476,28 +26476,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57243.92344591294</v>
+        <v>57243.92344591297</v>
       </c>
       <c r="F5" t="n">
-        <v>57243.92344591294</v>
+        <v>57243.92344591297</v>
       </c>
       <c r="G5" t="n">
-        <v>63921.6259425646</v>
+        <v>63921.62594256462</v>
       </c>
       <c r="H5" t="n">
-        <v>63921.6259425646</v>
+        <v>63921.62594256462</v>
       </c>
       <c r="I5" t="n">
         <v>66740.07008220107</v>
       </c>
       <c r="J5" t="n">
-        <v>77650.54597770232</v>
+        <v>77650.54597770229</v>
       </c>
       <c r="K5" t="n">
+        <v>77650.54597770229</v>
+      </c>
+      <c r="L5" t="n">
         <v>77650.54597770231</v>
-      </c>
-      <c r="L5" t="n">
-        <v>77650.54597770232</v>
       </c>
       <c r="M5" t="n">
         <v>68321.30794187219</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>226483.4081902348</v>
+        <v>226478.9946123665</v>
       </c>
       <c r="C6" t="n">
-        <v>226483.4081902345</v>
+        <v>226478.9946123665</v>
       </c>
       <c r="D6" t="n">
-        <v>226483.4081902347</v>
+        <v>226478.9946123667</v>
       </c>
       <c r="E6" t="n">
-        <v>-391711.2924113321</v>
+        <v>-391970.4965252064</v>
       </c>
       <c r="F6" t="n">
-        <v>401920.3800037112</v>
+        <v>401661.1758898371</v>
       </c>
       <c r="G6" t="n">
-        <v>356844.9563226921</v>
+        <v>356809.1565564844</v>
       </c>
       <c r="H6" t="n">
-        <v>420389.9253043771</v>
+        <v>420354.12553817</v>
       </c>
       <c r="I6" t="n">
-        <v>412219.2958410118</v>
+        <v>412219.2958410119</v>
       </c>
       <c r="J6" t="n">
-        <v>350355.6602798586</v>
+        <v>350355.6602798585</v>
       </c>
       <c r="K6" t="n">
-        <v>426043.84033309</v>
+        <v>426043.8403330895</v>
       </c>
       <c r="L6" t="n">
-        <v>362498.8713514042</v>
+        <v>362498.8713514041</v>
       </c>
       <c r="M6" t="n">
-        <v>287949.4036761987</v>
+        <v>287949.4036761994</v>
       </c>
       <c r="N6" t="n">
-        <v>425304.7326141685</v>
+        <v>425304.7326141694</v>
       </c>
       <c r="O6" t="n">
-        <v>425304.7326141685</v>
+        <v>425304.7326141692</v>
       </c>
       <c r="P6" t="n">
         <v>425304.7326141691</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G2" t="n">
         <v>158.8624224542139</v>
@@ -26707,10 +26707,10 @@
         <v>158.8624224542139</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="K2" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="L2" t="n">
         <v>79.43121122710694</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973007</v>
       </c>
       <c r="F3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973007</v>
       </c>
       <c r="G3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973007</v>
       </c>
       <c r="H3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973007</v>
       </c>
       <c r="I3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973007</v>
       </c>
       <c r="J3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973007</v>
       </c>
       <c r="K3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973007</v>
       </c>
       <c r="L3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973007</v>
       </c>
       <c r="M3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973007</v>
       </c>
       <c r="N3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973007</v>
       </c>
       <c r="O3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973007</v>
       </c>
       <c r="P3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973007</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611864</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="F4" t="n">
-        <v>583.6180421611864</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="G4" t="n">
-        <v>583.6180421611864</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="H4" t="n">
-        <v>583.6180421611864</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="I4" t="n">
-        <v>629.974031299944</v>
+        <v>629.9740312999442</v>
       </c>
       <c r="J4" t="n">
-        <v>919.2532811708801</v>
+        <v>919.2532811708797</v>
       </c>
       <c r="K4" t="n">
-        <v>919.2532811708801</v>
+        <v>919.2532811708797</v>
       </c>
       <c r="L4" t="n">
-        <v>919.2532811708801</v>
+        <v>919.25328117088</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2621117002074</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2621117002074</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2621117002074</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2621117002074</v>
+        <v>674.2621117002075</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.431211227107</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="M2" t="n">
         <v>66.21019719500374</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973007</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611864</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>46.35598913875765</v>
+        <v>46.35598913875731</v>
       </c>
       <c r="J4" t="n">
-        <v>289.279249870936</v>
+        <v>289.2792498709356</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>338.6268726905137</v>
+        <v>338.6268726905143</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>583.6180421611864</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="12">
@@ -28181,13 +28181,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>25.84908941216773</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.1608637285961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,19 +28214,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.763751642754514</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T12" t="n">
-        <v>59.35568526792548</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="K13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="L13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="M13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="N13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="O13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="P13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="R13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="15">
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.43121122710696</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>79.43121122710696</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.1608637285961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,22 +28454,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>67.11943691068035</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>25.84908941216824</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J16" t="n">
-        <v>79.43121122710677</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="K16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="L16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="M16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="N16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710758</v>
       </c>
       <c r="O16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="P16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="R16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="17">
@@ -28658,10 +28658,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>22.66025450560678</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.763751642754528</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28697,7 +28697,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>128.2873276321912</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28719,13 +28719,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -28743,7 +28743,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J19" t="n">
-        <v>5.154479050315274</v>
+        <v>5.154479050315288</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28779,16 +28779,16 @@
         <v>158.8624224542139</v>
       </c>
       <c r="V19" t="n">
-        <v>104.742589205656</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>94.49563976965499</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="20">
@@ -28928,13 +28928,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>144.0419631757947</v>
+        <v>105.2803006392748</v>
       </c>
       <c r="T21" t="n">
-        <v>120.1007599176955</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>158.8624224542139</v>
       </c>
       <c r="C22" t="n">
-        <v>74.33970966768507</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -28974,13 +28974,13 @@
         <v>158.8624224542139</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I22" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J22" t="n">
-        <v>5.154479050315274</v>
+        <v>5.154479050315288</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29025,7 +29025,7 @@
         <v>158.8624224542139</v>
       </c>
       <c r="Y22" t="n">
-        <v>158.8624224542139</v>
+        <v>82.0671799620103</v>
       </c>
     </row>
     <row r="23">
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>76.48064880104509</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754528</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>76.48064880104441</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29196,13 +29196,13 @@
         <v>158.8624224542139</v>
       </c>
       <c r="C25" t="n">
-        <v>73.32679504404695</v>
+        <v>68.62580553072748</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -29211,13 +29211,13 @@
         <v>158.8624224542139</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I25" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J25" t="n">
-        <v>5.154479050315274</v>
+        <v>5.154479050315288</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="C26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="D26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="E26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="F26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="G26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="H26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="I26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="T26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="U26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="V26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="W26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="X26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="C28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="D28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="E28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="F28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="G28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="H28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="I28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="J28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="K28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="L28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="M28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="N28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="O28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="P28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="R28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="S28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="T28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="U28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="V28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="W28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="X28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="C29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="D29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="E29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="F29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="G29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="H29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="I29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="T29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="U29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="V29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="W29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="X29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="C31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="D31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="E31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="F31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="G31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="H31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="I31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="J31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="K31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="L31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="M31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="N31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="O31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="P31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="R31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="S31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="T31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="U31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="V31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="W31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="X31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710699</v>
       </c>
     </row>
     <row r="32">
@@ -30144,10 +30144,10 @@
         <v>145.6414084221107</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="D37" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>145.6414084221107</v>
@@ -30156,16 +30156,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>19.97802276184365</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="H37" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J37" t="n">
-        <v>5.154479050315274</v>
+        <v>5.154479050315288</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>145.6414084221107</v>
@@ -30198,7 +30198,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="U37" t="n">
-        <v>145.6414084221107</v>
+        <v>23.24317139039783</v>
       </c>
       <c r="V37" t="n">
         <v>145.6414084221107</v>
@@ -30384,13 +30384,13 @@
         <v>145.6414084221107</v>
       </c>
       <c r="D40" t="n">
-        <v>145.6414084221107</v>
+        <v>47.46706713532367</v>
       </c>
       <c r="E40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>145.6414084221107</v>
@@ -30399,10 +30399,10 @@
         <v>145.6414084221107</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6882456680529643</v>
+        <v>5.154479050315288</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S40" t="n">
         <v>145.6414084221107</v>
@@ -30435,7 +30435,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="V40" t="n">
         <v>145.6414084221107</v>
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="C43" t="n">
-        <v>47.68742753450378</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="E43" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.6414084221107</v>
+        <v>47.4670671353236</v>
       </c>
       <c r="I43" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J43" t="n">
-        <v>5.154479050315274</v>
+        <v>5.154479050315288</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450303</v>
       </c>
       <c r="C46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>145.6414084221107</v>
@@ -30876,7 +30876,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J46" t="n">
-        <v>5.154479050315274</v>
+        <v>5.154479050315288</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,13 +30903,13 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>145.6414084221107</v>
       </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
       <c r="U46" t="n">
-        <v>47.6874275345036</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="V46" t="n">
         <v>145.6414084221107</v>
@@ -30921,7 +30921,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
     </row>
   </sheetData>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H11" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380443</v>
       </c>
       <c r="I11" t="n">
         <v>107.2257085915656</v>
@@ -31765,7 +31765,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L11" t="n">
-        <v>438.9085275549832</v>
+        <v>438.9085275549831</v>
       </c>
       <c r="M11" t="n">
         <v>488.370305524382</v>
@@ -31774,10 +31774,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O11" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340028</v>
       </c>
       <c r="P11" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q11" t="n">
         <v>300.3481029418955</v>
@@ -31786,7 +31786,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S11" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413465</v>
       </c>
       <c r="T11" t="n">
         <v>12.17509991205702</v>
@@ -31835,25 +31835,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I12" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J12" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K12" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L12" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M12" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N12" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O12" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P12" t="n">
         <v>284.1659765693366</v>
@@ -31862,16 +31862,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R12" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988861</v>
       </c>
       <c r="S12" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T12" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633199</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678788</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,7 +31908,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H13" t="n">
         <v>11.09222034755017</v>
@@ -31917,7 +31917,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J13" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635749</v>
       </c>
       <c r="K13" t="n">
         <v>144.9474192655328</v>
@@ -31935,22 +31935,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P13" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q13" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R13" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916472</v>
       </c>
       <c r="S13" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T13" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438217</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006244</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H14" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380443</v>
       </c>
       <c r="I14" t="n">
         <v>107.2257085915656</v>
@@ -32002,7 +32002,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L14" t="n">
-        <v>438.9085275549832</v>
+        <v>438.9085275549831</v>
       </c>
       <c r="M14" t="n">
         <v>488.370305524382</v>
@@ -32011,10 +32011,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O14" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340028</v>
       </c>
       <c r="P14" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q14" t="n">
         <v>300.3481029418955</v>
@@ -32023,7 +32023,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S14" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413465</v>
       </c>
       <c r="T14" t="n">
         <v>12.17509991205702</v>
@@ -32072,25 +32072,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I15" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J15" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K15" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L15" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M15" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N15" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O15" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P15" t="n">
         <v>284.1659765693366</v>
@@ -32099,16 +32099,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R15" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988861</v>
       </c>
       <c r="S15" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T15" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633199</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678788</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,7 +32145,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H16" t="n">
         <v>11.09222034755017</v>
@@ -32154,7 +32154,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J16" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635749</v>
       </c>
       <c r="K16" t="n">
         <v>144.9474192655328</v>
@@ -32172,22 +32172,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P16" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q16" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R16" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916472</v>
       </c>
       <c r="S16" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T16" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438217</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006244</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H17" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380443</v>
       </c>
       <c r="I17" t="n">
         <v>107.2257085915656</v>
@@ -32239,7 +32239,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L17" t="n">
-        <v>438.9085275549832</v>
+        <v>438.9085275549831</v>
       </c>
       <c r="M17" t="n">
         <v>488.370305524382</v>
@@ -32248,10 +32248,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O17" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340028</v>
       </c>
       <c r="P17" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q17" t="n">
         <v>300.3481029418955</v>
@@ -32260,7 +32260,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S17" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413465</v>
       </c>
       <c r="T17" t="n">
         <v>12.17509991205702</v>
@@ -32309,25 +32309,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I18" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J18" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K18" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L18" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M18" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N18" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O18" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P18" t="n">
         <v>284.1659765693366</v>
@@ -32336,16 +32336,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R18" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988861</v>
       </c>
       <c r="S18" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T18" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633199</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678788</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H19" t="n">
         <v>11.09222034755017</v>
@@ -32391,7 +32391,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J19" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635749</v>
       </c>
       <c r="K19" t="n">
         <v>144.9474192655328</v>
@@ -32409,22 +32409,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P19" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q19" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R19" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916472</v>
       </c>
       <c r="S19" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T19" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438217</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006244</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H20" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380443</v>
       </c>
       <c r="I20" t="n">
         <v>107.2257085915656</v>
@@ -32476,7 +32476,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L20" t="n">
-        <v>438.9085275549832</v>
+        <v>438.9085275549831</v>
       </c>
       <c r="M20" t="n">
         <v>488.370305524382</v>
@@ -32485,10 +32485,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O20" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340028</v>
       </c>
       <c r="P20" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q20" t="n">
         <v>300.3481029418955</v>
@@ -32497,7 +32497,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S20" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413465</v>
       </c>
       <c r="T20" t="n">
         <v>12.17509991205702</v>
@@ -32546,25 +32546,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I21" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J21" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K21" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L21" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M21" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N21" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O21" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P21" t="n">
         <v>284.1659765693366</v>
@@ -32573,16 +32573,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R21" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988861</v>
       </c>
       <c r="S21" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T21" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633199</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678788</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,7 +32619,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H22" t="n">
         <v>11.09222034755017</v>
@@ -32628,7 +32628,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J22" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635749</v>
       </c>
       <c r="K22" t="n">
         <v>144.9474192655328</v>
@@ -32646,22 +32646,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P22" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q22" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R22" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916472</v>
       </c>
       <c r="S22" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T22" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438217</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006244</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H23" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380443</v>
       </c>
       <c r="I23" t="n">
         <v>107.2257085915656</v>
@@ -32713,7 +32713,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L23" t="n">
-        <v>438.9085275549832</v>
+        <v>438.9085275549831</v>
       </c>
       <c r="M23" t="n">
         <v>488.370305524382</v>
@@ -32722,10 +32722,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O23" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340028</v>
       </c>
       <c r="P23" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q23" t="n">
         <v>300.3481029418955</v>
@@ -32734,7 +32734,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S23" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413465</v>
       </c>
       <c r="T23" t="n">
         <v>12.17509991205702</v>
@@ -32783,25 +32783,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I24" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J24" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K24" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L24" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M24" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N24" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O24" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P24" t="n">
         <v>284.1659765693366</v>
@@ -32810,16 +32810,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R24" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988861</v>
       </c>
       <c r="S24" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T24" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633199</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678788</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,7 +32856,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H25" t="n">
         <v>11.09222034755017</v>
@@ -32865,7 +32865,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J25" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635749</v>
       </c>
       <c r="K25" t="n">
         <v>144.9474192655328</v>
@@ -32883,22 +32883,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P25" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q25" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R25" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916472</v>
       </c>
       <c r="S25" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T25" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438217</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006244</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H26" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380443</v>
       </c>
       <c r="I26" t="n">
         <v>107.2257085915656</v>
@@ -32950,7 +32950,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L26" t="n">
-        <v>438.9085275549832</v>
+        <v>438.9085275549831</v>
       </c>
       <c r="M26" t="n">
         <v>488.370305524382</v>
@@ -32959,10 +32959,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O26" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340028</v>
       </c>
       <c r="P26" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q26" t="n">
         <v>300.3481029418955</v>
@@ -32971,7 +32971,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S26" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413465</v>
       </c>
       <c r="T26" t="n">
         <v>12.17509991205702</v>
@@ -33020,25 +33020,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I27" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J27" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K27" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L27" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M27" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N27" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O27" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P27" t="n">
         <v>284.1659765693366</v>
@@ -33047,16 +33047,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R27" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988861</v>
       </c>
       <c r="S27" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T27" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633199</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678788</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,7 +33093,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H28" t="n">
         <v>11.09222034755017</v>
@@ -33102,7 +33102,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J28" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635749</v>
       </c>
       <c r="K28" t="n">
         <v>144.9474192655328</v>
@@ -33120,22 +33120,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P28" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q28" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R28" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916472</v>
       </c>
       <c r="S28" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T28" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438217</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006244</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H29" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380443</v>
       </c>
       <c r="I29" t="n">
         <v>107.2257085915656</v>
@@ -33187,7 +33187,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L29" t="n">
-        <v>438.9085275549832</v>
+        <v>438.9085275549831</v>
       </c>
       <c r="M29" t="n">
         <v>488.370305524382</v>
@@ -33196,10 +33196,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O29" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340028</v>
       </c>
       <c r="P29" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q29" t="n">
         <v>300.3481029418955</v>
@@ -33208,7 +33208,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S29" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413465</v>
       </c>
       <c r="T29" t="n">
         <v>12.17509991205702</v>
@@ -33257,25 +33257,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I30" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J30" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K30" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L30" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M30" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N30" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O30" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P30" t="n">
         <v>284.1659765693366</v>
@@ -33284,16 +33284,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R30" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988861</v>
       </c>
       <c r="S30" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T30" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633199</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678788</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,7 +33330,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H31" t="n">
         <v>11.09222034755017</v>
@@ -33339,7 +33339,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J31" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635749</v>
       </c>
       <c r="K31" t="n">
         <v>144.9474192655328</v>
@@ -33357,22 +33357,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P31" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q31" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R31" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916472</v>
       </c>
       <c r="S31" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T31" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438217</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006244</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H32" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380443</v>
       </c>
       <c r="I32" t="n">
         <v>107.2257085915656</v>
@@ -33424,7 +33424,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L32" t="n">
-        <v>438.9085275549832</v>
+        <v>438.9085275549831</v>
       </c>
       <c r="M32" t="n">
         <v>488.370305524382</v>
@@ -33433,10 +33433,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O32" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340028</v>
       </c>
       <c r="P32" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q32" t="n">
         <v>300.3481029418955</v>
@@ -33445,7 +33445,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S32" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413465</v>
       </c>
       <c r="T32" t="n">
         <v>12.17509991205702</v>
@@ -33494,25 +33494,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I33" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J33" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K33" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L33" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M33" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N33" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O33" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P33" t="n">
         <v>284.1659765693366</v>
@@ -33521,16 +33521,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R33" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988861</v>
       </c>
       <c r="S33" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T33" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633199</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678788</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,7 +33567,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H34" t="n">
         <v>11.09222034755017</v>
@@ -33576,7 +33576,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J34" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635749</v>
       </c>
       <c r="K34" t="n">
         <v>144.9474192655328</v>
@@ -33594,22 +33594,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P34" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q34" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R34" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916472</v>
       </c>
       <c r="S34" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T34" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438217</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006244</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H35" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380443</v>
       </c>
       <c r="I35" t="n">
         <v>107.2257085915656</v>
@@ -33661,7 +33661,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L35" t="n">
-        <v>438.9085275549832</v>
+        <v>438.9085275549831</v>
       </c>
       <c r="M35" t="n">
         <v>488.370305524382</v>
@@ -33670,10 +33670,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O35" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340028</v>
       </c>
       <c r="P35" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q35" t="n">
         <v>300.3481029418955</v>
@@ -33682,7 +33682,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S35" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413465</v>
       </c>
       <c r="T35" t="n">
         <v>12.17509991205702</v>
@@ -33731,25 +33731,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I36" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J36" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K36" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L36" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M36" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N36" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O36" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P36" t="n">
         <v>284.1659765693366</v>
@@ -33758,16 +33758,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R36" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988861</v>
       </c>
       <c r="S36" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T36" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633199</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678788</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,7 +33804,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H37" t="n">
         <v>11.09222034755017</v>
@@ -33813,7 +33813,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J37" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635749</v>
       </c>
       <c r="K37" t="n">
         <v>144.9474192655328</v>
@@ -33831,22 +33831,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P37" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q37" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R37" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916472</v>
       </c>
       <c r="S37" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T37" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438217</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006244</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H38" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380443</v>
       </c>
       <c r="I38" t="n">
         <v>107.2257085915656</v>
@@ -33898,7 +33898,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L38" t="n">
-        <v>438.9085275549832</v>
+        <v>438.9085275549831</v>
       </c>
       <c r="M38" t="n">
         <v>488.370305524382</v>
@@ -33907,10 +33907,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O38" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340028</v>
       </c>
       <c r="P38" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q38" t="n">
         <v>300.3481029418955</v>
@@ -33919,7 +33919,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S38" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413465</v>
       </c>
       <c r="T38" t="n">
         <v>12.17509991205702</v>
@@ -33968,25 +33968,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I39" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J39" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K39" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L39" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M39" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N39" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O39" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P39" t="n">
         <v>284.1659765693366</v>
@@ -33995,16 +33995,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R39" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988861</v>
       </c>
       <c r="S39" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T39" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633199</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678788</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,7 +34041,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H40" t="n">
         <v>11.09222034755017</v>
@@ -34050,7 +34050,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J40" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635749</v>
       </c>
       <c r="K40" t="n">
         <v>144.9474192655328</v>
@@ -34068,22 +34068,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P40" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q40" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R40" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916472</v>
       </c>
       <c r="S40" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T40" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438217</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006244</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H41" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380443</v>
       </c>
       <c r="I41" t="n">
         <v>107.2257085915656</v>
@@ -34135,7 +34135,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L41" t="n">
-        <v>438.9085275549832</v>
+        <v>438.9085275549831</v>
       </c>
       <c r="M41" t="n">
         <v>488.370305524382</v>
@@ -34144,10 +34144,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O41" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340028</v>
       </c>
       <c r="P41" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q41" t="n">
         <v>300.3481029418955</v>
@@ -34156,7 +34156,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S41" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413465</v>
       </c>
       <c r="T41" t="n">
         <v>12.17509991205702</v>
@@ -34205,25 +34205,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I42" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J42" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K42" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L42" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M42" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N42" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O42" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P42" t="n">
         <v>284.1659765693366</v>
@@ -34232,16 +34232,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R42" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988861</v>
       </c>
       <c r="S42" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T42" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633199</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678788</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,7 +34278,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H43" t="n">
         <v>11.09222034755017</v>
@@ -34287,7 +34287,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J43" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635749</v>
       </c>
       <c r="K43" t="n">
         <v>144.9474192655328</v>
@@ -34305,22 +34305,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P43" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q43" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R43" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916472</v>
       </c>
       <c r="S43" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T43" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438217</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006244</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H44" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380443</v>
       </c>
       <c r="I44" t="n">
         <v>107.2257085915656</v>
@@ -34372,7 +34372,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L44" t="n">
-        <v>438.9085275549832</v>
+        <v>438.9085275549831</v>
       </c>
       <c r="M44" t="n">
         <v>488.370305524382</v>
@@ -34381,10 +34381,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O44" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340028</v>
       </c>
       <c r="P44" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q44" t="n">
         <v>300.3481029418955</v>
@@ -34393,7 +34393,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S44" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413465</v>
       </c>
       <c r="T44" t="n">
         <v>12.17509991205702</v>
@@ -34442,25 +34442,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I45" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J45" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K45" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L45" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M45" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N45" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O45" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P45" t="n">
         <v>284.1659765693366</v>
@@ -34469,16 +34469,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R45" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988861</v>
       </c>
       <c r="S45" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T45" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633199</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678788</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,7 +34515,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H46" t="n">
         <v>11.09222034755017</v>
@@ -34524,7 +34524,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J46" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635749</v>
       </c>
       <c r="K46" t="n">
         <v>144.9474192655328</v>
@@ -34542,22 +34542,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P46" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q46" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R46" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916472</v>
       </c>
       <c r="S46" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T46" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438217</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006244</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K11" t="n">
-        <v>457.8461647102672</v>
+        <v>133.7007521391024</v>
       </c>
       <c r="L11" t="n">
         <v>203.1421125849959</v>
       </c>
       <c r="M11" t="n">
-        <v>258.0240722971093</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="N11" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O11" t="n">
-        <v>238.5179771123162</v>
+        <v>238.5179771123161</v>
       </c>
       <c r="P11" t="n">
-        <v>372.0350474816736</v>
+        <v>370.5864901887634</v>
       </c>
       <c r="Q11" t="n">
         <v>290.3574037273507</v>
@@ -35489,25 +35489,25 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K12" t="n">
-        <v>366.9228186490255</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L12" t="n">
-        <v>184.5573081723747</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M12" t="n">
-        <v>234.9220657245106</v>
+        <v>234.9220657245105</v>
       </c>
       <c r="N12" t="n">
-        <v>583.6180421611864</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O12" t="n">
-        <v>211.4657641677289</v>
+        <v>239.4768944395034</v>
       </c>
       <c r="P12" t="n">
-        <v>329.5044240285375</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q12" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302605</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.27673217679168</v>
+        <v>74.27673217679164</v>
       </c>
       <c r="K13" t="n">
-        <v>202.1091386667569</v>
+        <v>202.1091386667568</v>
       </c>
       <c r="L13" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M13" t="n">
         <v>314.5806868114501</v>
@@ -35586,7 +35586,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.73792218940498</v>
+        <v>97.73792218940494</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>224.1092797284143</v>
+        <v>55.0126645563405</v>
       </c>
       <c r="K14" t="n">
-        <v>457.8461647102672</v>
+        <v>316.9967440590544</v>
       </c>
       <c r="L14" t="n">
-        <v>203.1421125849959</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="M14" t="n">
-        <v>258.0240722971093</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N14" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O14" t="n">
-        <v>238.5179771123162</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="P14" t="n">
-        <v>490.5187875112879</v>
+        <v>168.7200793398052</v>
       </c>
       <c r="Q14" t="n">
-        <v>171.8736636977366</v>
+        <v>78.04241306744601</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K15" t="n">
-        <v>184.8566611849485</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3976534758339</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M15" t="n">
-        <v>234.9220657245106</v>
+        <v>234.9220657245105</v>
       </c>
       <c r="N15" t="n">
-        <v>255.6939405553983</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O15" t="n">
-        <v>211.4657641677289</v>
+        <v>400.2399520071133</v>
       </c>
       <c r="P15" t="n">
         <v>468.6543377949436</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.2767321767915</v>
+        <v>74.27673217679164</v>
       </c>
       <c r="K16" t="n">
-        <v>202.1091386667569</v>
+        <v>202.1091386667568</v>
       </c>
       <c r="L16" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M16" t="n">
         <v>314.5806868114501</v>
       </c>
       <c r="N16" t="n">
-        <v>314.4788694042006</v>
+        <v>314.4788694042012</v>
       </c>
       <c r="O16" t="n">
         <v>280.3576908422816</v>
@@ -35823,7 +35823,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.73792218940498</v>
+        <v>97.73792218940494</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>84.67088722109457</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K17" t="n">
-        <v>133.7007521391025</v>
+        <v>133.7007521391024</v>
       </c>
       <c r="L17" t="n">
         <v>203.1421125849959</v>
       </c>
       <c r="M17" t="n">
-        <v>258.0240722971093</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="N17" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O17" t="n">
-        <v>583.6180421611864</v>
+        <v>238.5179771123161</v>
       </c>
       <c r="P17" t="n">
-        <v>490.5187875112879</v>
+        <v>345.745358021232</v>
       </c>
       <c r="Q17" t="n">
         <v>290.3574037273507</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>24.8411321675315</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K18" t="n">
-        <v>366.9228186490255</v>
+        <v>102.4575816364469</v>
       </c>
       <c r="L18" t="n">
-        <v>184.5573081723747</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M18" t="n">
-        <v>234.9220657245106</v>
+        <v>516.6251673530131</v>
       </c>
       <c r="N18" t="n">
-        <v>255.6939405553983</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="O18" t="n">
-        <v>583.6180421611864</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="P18" t="n">
-        <v>468.6543377949436</v>
+        <v>150.1915691550064</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.67485337479968</v>
+        <v>49.97565579302605</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36057,10 +36057,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P19" t="n">
-        <v>148.1690495550851</v>
+        <v>148.169049555085</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229801</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.01266455634052</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K20" t="n">
-        <v>133.7007521391025</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L20" t="n">
-        <v>203.1421125849959</v>
+        <v>406.4570807268669</v>
       </c>
       <c r="M20" t="n">
-        <v>258.0240722971093</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N20" t="n">
-        <v>583.6180421611864</v>
+        <v>266.8595840466106</v>
       </c>
       <c r="O20" t="n">
-        <v>583.6180421611864</v>
+        <v>238.5179771123161</v>
       </c>
       <c r="P20" t="n">
-        <v>178.5774198939345</v>
+        <v>168.7200793398052</v>
       </c>
       <c r="Q20" t="n">
         <v>290.3574037273507</v>
       </c>
       <c r="R20" t="n">
-        <v>24.84113216753153</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K21" t="n">
-        <v>366.9228186490255</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L21" t="n">
-        <v>184.5573081723747</v>
+        <v>373.331496011759</v>
       </c>
       <c r="M21" t="n">
-        <v>583.6180421611864</v>
+        <v>234.9220657245105</v>
       </c>
       <c r="N21" t="n">
-        <v>255.6939405553983</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O21" t="n">
-        <v>583.6180421611864</v>
+        <v>211.4657641677289</v>
       </c>
       <c r="P21" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q21" t="n">
-        <v>172.5326809184701</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36294,10 +36294,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P22" t="n">
-        <v>148.1690495550851</v>
+        <v>148.169049555085</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229801</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>175.2151093146471</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K23" t="n">
-        <v>133.7007521391025</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L23" t="n">
         <v>203.1421125849959</v>
       </c>
       <c r="M23" t="n">
-        <v>629.974031299944</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N23" t="n">
-        <v>629.974031299944</v>
+        <v>266.8595840466106</v>
       </c>
       <c r="O23" t="n">
-        <v>238.5179771123162</v>
+        <v>303.5852243796017</v>
       </c>
       <c r="P23" t="n">
-        <v>168.7200793398052</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q23" t="n">
         <v>290.3574037273507</v>
       </c>
       <c r="R23" t="n">
-        <v>24.84113216753153</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>118.3111311160507</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K24" t="n">
-        <v>366.9228186490255</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L24" t="n">
-        <v>184.5573081723747</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M24" t="n">
-        <v>234.9220657245106</v>
+        <v>236.4068955573333</v>
       </c>
       <c r="N24" t="n">
-        <v>255.6939405553983</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O24" t="n">
-        <v>605.3280834444585</v>
+        <v>211.4657641677289</v>
       </c>
       <c r="P24" t="n">
         <v>468.6543377949436</v>
@@ -36531,10 +36531,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P25" t="n">
-        <v>148.1690495550851</v>
+        <v>148.169049555085</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229801</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>55.01266455634052</v>
+        <v>73.42903483275853</v>
       </c>
       <c r="K26" t="n">
-        <v>364.4321130754264</v>
+        <v>133.7007521391024</v>
       </c>
       <c r="L26" t="n">
         <v>620.8033271354464</v>
       </c>
       <c r="M26" t="n">
-        <v>707.5376057899418</v>
+        <v>707.5376057899417</v>
       </c>
       <c r="N26" t="n">
         <v>704.2065084585947</v>
       </c>
       <c r="O26" t="n">
-        <v>619.3181583750616</v>
+        <v>619.3181583750614</v>
       </c>
       <c r="P26" t="n">
-        <v>490.5187875112879</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.04241306744606</v>
+        <v>290.3574037273507</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K27" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L27" t="n">
-        <v>223.0239576809205</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M27" t="n">
-        <v>700.6271294745104</v>
+        <v>322.3617985711066</v>
       </c>
       <c r="N27" t="n">
-        <v>735.0363148989518</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O27" t="n">
-        <v>605.3280834444585</v>
+        <v>211.4657641677289</v>
       </c>
       <c r="P27" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q27" t="n">
-        <v>49.97565579302608</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.27673217679167</v>
+        <v>74.27673217679168</v>
       </c>
       <c r="K28" t="n">
         <v>202.1091386667569</v>
@@ -36771,7 +36771,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.73792218940497</v>
+        <v>97.73792218940498</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K29" t="n">
-        <v>457.8461647102672</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L29" t="n">
-        <v>203.1421125849959</v>
+        <v>526.7778509313713</v>
       </c>
       <c r="M29" t="n">
-        <v>707.5376057899418</v>
+        <v>707.5376057899417</v>
       </c>
       <c r="N29" t="n">
         <v>704.2065084585947</v>
       </c>
       <c r="O29" t="n">
-        <v>537.3125832911613</v>
+        <v>238.5179771123161</v>
       </c>
       <c r="P29" t="n">
-        <v>490.5187875112879</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q29" t="n">
         <v>290.3574037273507</v>
       </c>
       <c r="R29" t="n">
-        <v>24.84113216753153</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K30" t="n">
-        <v>140.9242311449927</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L30" t="n">
-        <v>184.5573081723747</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M30" t="n">
-        <v>700.6271294745104</v>
+        <v>322.3617985711066</v>
       </c>
       <c r="N30" t="n">
-        <v>735.0363148989518</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O30" t="n">
-        <v>605.3280834444585</v>
+        <v>211.4657641677289</v>
       </c>
       <c r="P30" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q30" t="n">
-        <v>49.97565579302608</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.27673217679163</v>
+        <v>74.2767321767917</v>
       </c>
       <c r="K31" t="n">
-        <v>202.1091386667568</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L31" t="n">
-        <v>292.5040294974797</v>
+        <v>292.5040294974798</v>
       </c>
       <c r="M31" t="n">
         <v>314.5806868114501</v>
@@ -37008,7 +37008,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.73792218940493</v>
+        <v>97.737922189405</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K32" t="n">
-        <v>457.8461647102672</v>
+        <v>407.6929085687486</v>
       </c>
       <c r="L32" t="n">
         <v>620.8033271354464</v>
       </c>
       <c r="M32" t="n">
-        <v>258.0240722971093</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N32" t="n">
         <v>704.2065084585947</v>
       </c>
       <c r="O32" t="n">
-        <v>619.3181583750616</v>
+        <v>619.3181583750614</v>
       </c>
       <c r="P32" t="n">
-        <v>440.3655313697697</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q32" t="n">
         <v>290.3574037273507</v>
       </c>
       <c r="R32" t="n">
-        <v>24.84113216753153</v>
+        <v>24.8411321675315</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K33" t="n">
-        <v>366.9228186490255</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L33" t="n">
-        <v>184.5573081723747</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M33" t="n">
-        <v>234.9220657245106</v>
+        <v>322.3617985711066</v>
       </c>
       <c r="N33" t="n">
-        <v>320.1116994287234</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O33" t="n">
-        <v>605.3280834444585</v>
+        <v>211.4657641677289</v>
       </c>
       <c r="P33" t="n">
         <v>468.6543377949436</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.27673217679167</v>
+        <v>74.27673217679165</v>
       </c>
       <c r="K34" t="n">
-        <v>202.1091386667569</v>
+        <v>202.1091386667568</v>
       </c>
       <c r="L34" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M34" t="n">
         <v>314.5806868114501</v>
@@ -37245,7 +37245,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.73792218940497</v>
+        <v>97.73792218940496</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>224.1092797284143</v>
+        <v>55.0126645563405</v>
       </c>
       <c r="K35" t="n">
-        <v>457.8461647102672</v>
+        <v>451.134891957672</v>
       </c>
       <c r="L35" t="n">
         <v>203.1421125849959</v>
       </c>
       <c r="M35" t="n">
-        <v>258.0240722971093</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="N35" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O35" t="n">
-        <v>478.9481285907446</v>
+        <v>238.5179771123161</v>
       </c>
       <c r="P35" t="n">
-        <v>490.5187875112879</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q35" t="n">
         <v>290.3574037273507</v>
@@ -37385,19 +37385,19 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K36" t="n">
-        <v>366.9228186490255</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L36" t="n">
-        <v>248.9750670457003</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M36" t="n">
-        <v>234.9220657245106</v>
+        <v>322.361798571107</v>
       </c>
       <c r="N36" t="n">
-        <v>255.6939405553983</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O36" t="n">
-        <v>605.3280834444585</v>
+        <v>211.4657641677289</v>
       </c>
       <c r="P36" t="n">
         <v>468.6543377949436</v>
@@ -37479,10 +37479,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P37" t="n">
-        <v>148.1690495550851</v>
+        <v>148.169049555085</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229801</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,22 +37543,22 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K38" t="n">
-        <v>457.8461647102672</v>
+        <v>133.7007521391024</v>
       </c>
       <c r="L38" t="n">
         <v>203.1421125849959</v>
       </c>
       <c r="M38" t="n">
-        <v>258.0240722971093</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="N38" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O38" t="n">
-        <v>478.9481285907446</v>
+        <v>386.8555017588117</v>
       </c>
       <c r="P38" t="n">
-        <v>490.5187875112879</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q38" t="n">
         <v>290.3574037273507</v>
@@ -37622,16 +37622,16 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K39" t="n">
-        <v>366.9228186490255</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L39" t="n">
-        <v>555.3976534758339</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M39" t="n">
-        <v>322.3617985711068</v>
+        <v>322.361798571107</v>
       </c>
       <c r="N39" t="n">
-        <v>255.6939405553983</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O39" t="n">
         <v>211.4657641677289</v>
@@ -37716,10 +37716,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P40" t="n">
-        <v>148.1690495550851</v>
+        <v>148.169049555085</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229801</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K41" t="n">
-        <v>133.7007521391025</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L41" t="n">
-        <v>203.1421125849959</v>
+        <v>443.5722640634252</v>
       </c>
       <c r="M41" t="n">
-        <v>674.2621117002074</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N41" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O41" t="n">
-        <v>362.0143695912799</v>
+        <v>238.5179771123161</v>
       </c>
       <c r="P41" t="n">
-        <v>490.5187875112879</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q41" t="n">
         <v>290.3574037273507</v>
       </c>
       <c r="R41" t="n">
-        <v>24.84113216753153</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K42" t="n">
-        <v>366.9228186490255</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L42" t="n">
-        <v>248.9750670457003</v>
+        <v>203.4973403467334</v>
       </c>
       <c r="M42" t="n">
-        <v>234.9220657245106</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="N42" t="n">
-        <v>255.6939405553983</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O42" t="n">
-        <v>605.3280834444585</v>
+        <v>211.4657641677289</v>
       </c>
       <c r="P42" t="n">
         <v>468.6543377949436</v>
@@ -37953,10 +37953,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P43" t="n">
-        <v>148.1690495550851</v>
+        <v>148.169049555085</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229801</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K44" t="n">
-        <v>257.1971446180661</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L44" t="n">
         <v>203.1421125849959</v>
       </c>
       <c r="M44" t="n">
-        <v>674.2621117002074</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N44" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O44" t="n">
-        <v>238.5179771123162</v>
+        <v>454.1069964232138</v>
       </c>
       <c r="P44" t="n">
-        <v>490.5187875112879</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q44" t="n">
         <v>290.3574037273507</v>
       </c>
       <c r="R44" t="n">
-        <v>24.84113216753153</v>
+        <v>24.8411321675315</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K45" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L45" t="n">
-        <v>184.5573081723747</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M45" t="n">
-        <v>674.2621117002074</v>
+        <v>322.361798571107</v>
       </c>
       <c r="N45" t="n">
-        <v>673.7769468413924</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O45" t="n">
-        <v>605.3280834444585</v>
+        <v>211.4657641677289</v>
       </c>
       <c r="P45" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q45" t="n">
-        <v>49.97565579302608</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38190,10 +38190,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P46" t="n">
-        <v>148.1690495550851</v>
+        <v>148.169049555085</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229801</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
